--- a/Technology/Software/Palo Alto Networks.xlsx
+++ b/Technology/Software/Palo Alto Networks.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{185FA060-A6A7-0E45-8A7B-DBE20EDC1A39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00194775-3F97-9D49-9498-51B494DA4256}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3420" yWindow="500" windowWidth="25380" windowHeight="16080" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Financials" sheetId="1" r:id="rId1"/>
@@ -1581,7 +1581,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.8750000000000002E-2</v>
+            <v>4.5710000000000001E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1720,9 +1720,11 @@
     <v>Powered by Refinitiv</v>
     <v>265.89999999999998</v>
     <v>132.22</v>
-    <v>1.1301000000000001</v>
-    <v>5.5</v>
-    <v>2.2461999999999999E-2</v>
+    <v>1.1138999999999999</v>
+    <v>1.51</v>
+    <v>6.2629999999999995E-3</v>
+    <v>0.06</v>
+    <v>2.4729999999999999E-4</v>
     <v>USD</v>
     <v>Palo Alto Networks, Inc. is a global cybersecurity provider. The Company's cybersecurity platforms and services help secure enterprise users, networks, clouds and endpoints by delivering comprehensive cybersecurity backed by artificial intelligence and automation. The Company focuses on delivering value in four areas, Network Security, Cloud Security, Security Operations and Threat Intelligence and Security Consulting. Its network security platform is designed to deliver complete zero trust solutions to its customers. It enables cloud-native security through its Prisma Cloud platform. As a comprehensive Cloud Native Application Protection Platform (CNAPP), Prisma Cloud secures multi-and hybrid-cloud environments for applications, data and the entire cloud native technology stack across the full development lifecycle, from code to runtime. It delivers security automation, security analytics, endpoint security and attack surface management solutions through its Cortex portfolio.</v>
     <v>13948</v>
@@ -1730,24 +1732,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>3000 Tannery Way, SANTA CLARA, CA, 95054 US</v>
-    <v>252.08</v>
+    <v>247.74</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45232.999800613281</v>
+    <v>45239.889315635941</v>
     <v>0</v>
-    <v>247.08</v>
-    <v>77815868724</v>
+    <v>239.6</v>
+    <v>75400829181</v>
     <v>PALO ALTO NETWORKS, INC.</v>
     <v>PALO ALTO NETWORKS, INC.</v>
-    <v>247.56</v>
-    <v>197.5461</v>
-    <v>244.86</v>
-    <v>250.36</v>
+    <v>242.39</v>
+    <v>190.22370000000001</v>
+    <v>241.08</v>
+    <v>242.59</v>
+    <v>242.65</v>
     <v>310815900</v>
     <v>PANW</v>
     <v>PALO ALTO NETWORKS, INC. (XNAS:PANW)</v>
-    <v>3383</v>
-    <v>2810800</v>
+    <v>3131584</v>
+    <v>3281013</v>
     <v>2005</v>
   </rv>
   <rv s="2">
@@ -1779,6 +1782,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -1799,6 +1804,7 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -1815,7 +1821,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="42">
+    <a count="45">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -1826,13 +1832,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -1898,13 +1907,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
+      <v>Real-Time Nasdaq Last Sale</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -1949,6 +1964,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -1956,6 +1974,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -13849,7 +13870,7 @@
   <dimension ref="A1:P110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -13898,7 +13919,7 @@
     <row r="3" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="35" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>77815868724</v>
+        <v>75400829181</v>
       </c>
       <c r="B3" s="36" t="s">
         <v>201</v>
@@ -13926,7 +13947,7 @@
       </c>
       <c r="I3" s="40">
         <f>J14*(1+I7)/(I6-I7)</f>
-        <v>85675619723.007904</v>
+        <v>86079956702.643509</v>
       </c>
       <c r="J3" s="36" t="s">
         <v>205</v>
@@ -13971,7 +13992,7 @@
       </c>
       <c r="I4" s="50">
         <f>NPV(I6,F14,G14,H14,I14,(J14+I3))</f>
-        <v>70337321245.388</v>
+        <v>70691979593.859879</v>
       </c>
       <c r="J4" s="47" t="s">
         <v>211</v>
@@ -14021,14 +14042,14 @@
       </c>
       <c r="I5" s="50">
         <f>I4+G5-G6</f>
-        <v>70456621245.388</v>
+        <v>70811279593.859879</v>
       </c>
       <c r="J5" s="47" t="s">
         <v>218</v>
       </c>
       <c r="K5" s="53" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>250.36</v>
+        <v>242.59</v>
       </c>
       <c r="L5" s="36" t="s">
         <v>219</v>
@@ -14046,7 +14067,7 @@
     <row r="6" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="56">
         <f>O20/F10</f>
-        <v>9.5141054803765748</v>
+        <v>9.2188322754615477</v>
       </c>
       <c r="B6" s="45" t="s">
         <v>221</v>
@@ -14074,14 +14095,14 @@
       </c>
       <c r="I6" s="58">
         <f>N25</f>
-        <v>8.6338044790223334E-2</v>
+        <v>8.6049926153582909E-2</v>
       </c>
       <c r="J6" s="49" t="s">
         <v>224</v>
       </c>
       <c r="K6" s="59">
         <f>I5/G4</f>
-        <v>215.38220404844952</v>
+        <v>216.46637605993465</v>
       </c>
       <c r="L6" s="60" t="s">
         <v>225</v>
@@ -14099,14 +14120,14 @@
     <row r="7" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="63">
         <f>O20/F12</f>
-        <v>42.826565065492574</v>
+        <v>41.497429378646117</v>
       </c>
       <c r="B7" s="64" t="s">
         <v>227</v>
       </c>
       <c r="C7" s="65">
         <f>F14/A3</f>
-        <v>2.8220465002952656E-2</v>
+        <v>2.9124348151775531E-2</v>
       </c>
       <c r="D7" s="66" t="s">
         <v>228</v>
@@ -14133,7 +14154,7 @@
       </c>
       <c r="K7" s="72">
         <f>K6/K5-1</f>
-        <v>-0.13971000140417988</v>
+        <v>-0.10768631823267805</v>
       </c>
       <c r="L7" s="73" t="s">
         <v>231</v>
@@ -14438,7 +14459,7 @@
       </c>
       <c r="O14" s="91">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.8750000000000002E-2</v>
+        <v>4.5710000000000001E-2</v>
       </c>
       <c r="P14" s="43"/>
     </row>
@@ -14488,7 +14509,7 @@
       </c>
       <c r="O15" s="95" cm="1">
         <f t="array" ref="O15">_FV(A1,"Beta")</f>
-        <v>1.1301000000000001</v>
+        <v>1.1138999999999999</v>
       </c>
       <c r="P15" s="43"/>
     </row>
@@ -14543,7 +14564,7 @@
       </c>
       <c r="O17" s="102">
         <f>(O14)+((O15)*(O16-O14))</f>
-        <v>8.8586025000000013E-2</v>
+        <v>8.8361230999999998E-2</v>
       </c>
       <c r="P17" s="43"/>
     </row>
@@ -14618,7 +14639,7 @@
       </c>
       <c r="O20" s="104" cm="1">
         <f t="array" ref="O20">_FV(A1,"Market cap",TRUE)</f>
-        <v>77815868724</v>
+        <v>75400829181</v>
       </c>
       <c r="P20" s="43"/>
     </row>
@@ -14640,7 +14661,7 @@
       </c>
       <c r="O21" s="104">
         <f>O19+O20</f>
-        <v>80086568724</v>
+        <v>77671529181</v>
       </c>
       <c r="P21" s="43"/>
     </row>
@@ -14663,7 +14684,7 @@
       </c>
       <c r="O22" s="105">
         <f>(O19/O21)</f>
-        <v>2.8353068887561495E-2</v>
+        <v>2.9234650378886302E-2</v>
       </c>
       <c r="P22" s="43"/>
     </row>
@@ -14686,7 +14707,7 @@
       </c>
       <c r="O23" s="106">
         <f>O20/O21</f>
-        <v>0.97164693111243849</v>
+        <v>0.97076534962111372</v>
       </c>
       <c r="P23" s="43"/>
     </row>
@@ -14726,7 +14747,7 @@
       <c r="M25" s="82"/>
       <c r="N25" s="110">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>8.6338044790223334E-2</v>
+        <v>8.6049926153582909E-2</v>
       </c>
       <c r="O25" s="111"/>
       <c r="P25" s="43"/>

--- a/Technology/Software/Palo Alto Networks.xlsx
+++ b/Technology/Software/Palo Alto Networks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00194775-3F97-9D49-9498-51B494DA4256}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6350053C-103E-7B4D-AD4C-ECA00AF1AD57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="500" windowWidth="25380" windowHeight="16080" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Financials" sheetId="1" r:id="rId1"/>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1486" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1489" uniqueCount="252">
   <si>
     <t>2011 Y</t>
   </si>
@@ -824,6 +824,12 @@
   </si>
   <si>
     <t>WACC</t>
+  </si>
+  <si>
+    <t>Profit Margin</t>
+  </si>
+  <si>
+    <t>Daily Change (%)</t>
   </si>
 </sst>
 </file>
@@ -836,7 +842,7 @@
     <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -991,6 +997,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="15">
     <fill>
@@ -1074,7 +1086,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -1119,65 +1131,8 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </left>
       <right/>
       <top/>
@@ -1186,23 +1141,93 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </left>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
       </right>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1212,7 +1237,148 @@
       </left>
       <right/>
       <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1220,7 +1386,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1282,251 +1448,264 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="7" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="11" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="11" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="10" fontId="14" fillId="11" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="14" fillId="10" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="14" fillId="11" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="14" fillId="11" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="21" fillId="10" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="24" fillId="11" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="11" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="11" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="9" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="21" fillId="10" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="10" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="3" fillId="10" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="9" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="3" fillId="9" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="9" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="11" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="9" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="14" fillId="10" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="14" fillId="10" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="9" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="3" fillId="9" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="11" fillId="9" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="11" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="9" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="13" fillId="13" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="17" fillId="10" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="10" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="9" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="9" fontId="14" fillId="10" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="9" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="3" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="14" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="27" fillId="10" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="18" fillId="10" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="14" fillId="10" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="13" fillId="13" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="3" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="17" fillId="10" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="17" fillId="10" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
+    <xf numFmtId="167" fontId="3" fillId="9" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="14" fillId="10" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="9" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="9" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="9" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="14" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="18" fillId="10" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="13" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="17" fillId="10" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="20" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="16" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="21" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="24" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="11" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="11" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="16" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="16" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="16" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="10" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="10" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="20" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="10" fontId="16" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="2" fontId="16" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="20" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="20" fillId="11" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="20" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    <xf numFmtId="10" fontId="20" fillId="11" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="17" fillId="10" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="3" fillId="10" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="17" fillId="10" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="3" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="13" fillId="9" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="21" fillId="9" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="13" fillId="9" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="21" fillId="9" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="9" fontId="13" fillId="11" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="21" fillId="11" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="13" fillId="11" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="21" fillId="11" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="10" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="3" fillId="10" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="10" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="3" fillId="10" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1564,6 +1743,7 @@
       <sheetName val="High Growth"/>
       <sheetName val="GARP"/>
       <sheetName val="Watchlist"/>
+      <sheetName val="Small + Speculative"/>
       <sheetName val="Highest Quality"/>
       <sheetName val="GARP HF Buys"/>
       <sheetName val="Value HF Buys"/>
@@ -1581,7 +1761,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.5710000000000001E-2</v>
+            <v>4.2709999999999998E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1593,6 +1773,7 @@
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1718,39 +1899,39 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>265.89999999999998</v>
+    <v>296.8485</v>
     <v>132.22</v>
-    <v>1.1138999999999999</v>
-    <v>1.51</v>
-    <v>6.2629999999999995E-3</v>
-    <v>0.06</v>
-    <v>2.4729999999999999E-4</v>
+    <v>1.1717</v>
+    <v>1.07</v>
+    <v>3.6259999999999999E-3</v>
+    <v>-0.26</v>
+    <v>-8.7790000000000003E-4</v>
     <v>USD</v>
     <v>Palo Alto Networks, Inc. is a global cybersecurity provider. The Company's cybersecurity platforms and services help secure enterprise users, networks, clouds and endpoints by delivering comprehensive cybersecurity backed by artificial intelligence and automation. The Company focuses on delivering value in four areas, Network Security, Cloud Security, Security Operations and Threat Intelligence and Security Consulting. Its network security platform is designed to deliver complete zero trust solutions to its customers. It enables cloud-native security through its Prisma Cloud platform. As a comprehensive Cloud Native Application Protection Platform (CNAPP), Prisma Cloud secures multi-and hybrid-cloud environments for applications, data and the entire cloud native technology stack across the full development lifecycle, from code to runtime. It delivers security automation, security analytics, endpoint security and attack surface management solutions through its Cortex portfolio.</v>
-    <v>13948</v>
+    <v>14182</v>
     <v>Nasdaq Stock Market</v>
     <v>XNAS</v>
     <v>XNAS</v>
     <v>3000 Tannery Way, SANTA CLARA, CA, 95054 US</v>
-    <v>247.74</v>
+    <v>296.8485</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45239.889315635941</v>
+    <v>45262.041188703122</v>
     <v>0</v>
-    <v>239.6</v>
-    <v>75400829181</v>
+    <v>291.05</v>
+    <v>93379248000</v>
     <v>PALO ALTO NETWORKS, INC.</v>
     <v>PALO ALTO NETWORKS, INC.</v>
-    <v>242.39</v>
-    <v>190.22370000000001</v>
-    <v>241.08</v>
-    <v>242.59</v>
-    <v>242.65</v>
-    <v>310815900</v>
+    <v>292.31</v>
+    <v>167.33959999999999</v>
+    <v>295.08999999999997</v>
+    <v>296.16000000000003</v>
+    <v>295.89999999999998</v>
+    <v>315300000</v>
     <v>PANW</v>
     <v>PALO ALTO NETWORKS, INC. (XNAS:PANW)</v>
-    <v>3131584</v>
-    <v>3281013</v>
+    <v>6156816</v>
+    <v>5005114</v>
     <v>2005</v>
   </rv>
   <rv s="2">
@@ -1915,9 +2096,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>Delayed 15 minutes</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -2362,9 +2543,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S196"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A156" workbookViewId="0">
       <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L195" sqref="L195"/>
+      <selection pane="topRight" activeCell="A190" sqref="A190:XFD190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -13867,1738 +14048,1921 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CF882A2-1C5B-0F4A-9E4F-A9F89523C5C7}">
-  <dimension ref="A1:P110"/>
+  <dimension ref="A1:R110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16" width="18.83203125" customWidth="1"/>
+    <col min="1" max="18" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="113" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="112" t="e" vm="1">
+    <row r="1" spans="1:18" s="115" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="114" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="112"/>
-      <c r="H1" s="112"/>
-      <c r="I1" s="112"/>
-      <c r="J1" s="112"/>
-      <c r="K1" s="112"/>
-      <c r="L1" s="112"/>
-      <c r="M1" s="112"/>
-      <c r="N1" s="112"/>
-      <c r="O1" s="112"/>
-      <c r="P1" s="112"/>
-    </row>
-    <row r="2" spans="1:16" s="113" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="112"/>
-      <c r="B2" s="112"/>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="112"/>
-      <c r="J2" s="112"/>
-      <c r="K2" s="112"/>
-      <c r="L2" s="112"/>
-      <c r="M2" s="112"/>
-      <c r="N2" s="112"/>
-      <c r="O2" s="112"/>
-      <c r="P2" s="112"/>
-    </row>
-    <row r="3" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="35" cm="1">
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
+      <c r="K1" s="114"/>
+      <c r="L1" s="114"/>
+      <c r="M1" s="114"/>
+      <c r="N1" s="114"/>
+      <c r="O1" s="114"/>
+      <c r="P1" s="114"/>
+    </row>
+    <row r="2" spans="1:18" s="115" customFormat="1" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="114"/>
+      <c r="B2" s="114"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="114"/>
+      <c r="H2" s="114"/>
+      <c r="I2" s="114"/>
+      <c r="J2" s="114"/>
+      <c r="K2" s="114"/>
+      <c r="L2" s="114"/>
+      <c r="M2" s="114"/>
+      <c r="N2" s="114"/>
+      <c r="O2" s="114"/>
+      <c r="P2" s="114"/>
+    </row>
+    <row r="3" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="66" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>75400829181</v>
-      </c>
-      <c r="B3" s="36" t="s">
+        <v>93379248000</v>
+      </c>
+      <c r="B3" s="67" t="s">
         <v>201</v>
       </c>
-      <c r="C3" s="37">
+      <c r="C3" s="68">
         <f>Financials!O8*0.01</f>
         <v>0.7229000000000001</v>
       </c>
-      <c r="D3" s="36" t="s">
+      <c r="D3" s="67" t="s">
         <v>202</v>
       </c>
-      <c r="E3" s="37">
+      <c r="E3" s="68">
         <f>SUM(C11:E11)/3</f>
         <v>0.26473362167573239</v>
       </c>
-      <c r="F3" s="38" t="s">
+      <c r="F3" s="69" t="s">
         <v>203</v>
       </c>
-      <c r="G3" s="39">
+      <c r="G3" s="70">
         <f>AVERAGE(Financials!K129:O129)</f>
         <v>1.0493536219034705E-2</v>
       </c>
-      <c r="H3" s="38" t="s">
+      <c r="H3" s="69" t="s">
         <v>204</v>
       </c>
-      <c r="I3" s="40">
-        <f>J14*(1+I7)/(I6-I7)</f>
-        <v>86079956702.643509</v>
-      </c>
-      <c r="J3" s="36" t="s">
+      <c r="I3" s="71">
+        <f>J15*(1+I7)/(I6-I7)</f>
+        <v>81922849364.054916</v>
+      </c>
+      <c r="J3" s="72" t="s">
         <v>205</v>
       </c>
-      <c r="K3" s="41"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="43"/>
-      <c r="N3" s="114" t="s">
+      <c r="K3" s="73">
+        <f>(Financials!O172*-1)/Model!A3</f>
+        <v>0</v>
+      </c>
+      <c r="L3" s="74" t="s">
+        <v>212</v>
+      </c>
+      <c r="M3" s="35"/>
+      <c r="N3" s="116" t="s">
         <v>206</v>
       </c>
-      <c r="O3" s="115"/>
-      <c r="P3" s="43"/>
-    </row>
-    <row r="4" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="44">
+      <c r="O3" s="117"/>
+      <c r="P3" s="35"/>
+      <c r="Q3" s="35"/>
+      <c r="R3" s="35"/>
+    </row>
+    <row r="4" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="75">
         <f>Financials!O56-Financials!O96-Financials!O105</f>
         <v>119300000</v>
       </c>
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="76" t="s">
         <v>207</v>
       </c>
-      <c r="C4" s="46">
+      <c r="C4" s="77">
         <f>Financials!O17*0.01</f>
         <v>5.62E-2</v>
       </c>
-      <c r="D4" s="45" t="s">
+      <c r="D4" s="76" t="s">
         <v>208</v>
       </c>
-      <c r="E4" s="46">
+      <c r="E4" s="77">
         <f>SUM(C13:E13)/3</f>
         <v>-0.74769992109982797</v>
       </c>
-      <c r="F4" s="47" t="s">
+      <c r="F4" s="78" t="s">
         <v>209</v>
       </c>
-      <c r="G4" s="48">
+      <c r="G4" s="79">
         <f>A5*(1+(5*G3))</f>
-        <v>327123689.52050936</v>
-      </c>
-      <c r="H4" s="49" t="s">
+        <v>331843059.84930825</v>
+      </c>
+      <c r="H4" s="78" t="s">
         <v>210</v>
       </c>
-      <c r="I4" s="50">
-        <f>NPV(I6,F14,G14,H14,I14,(J14+I3))</f>
-        <v>70691979593.859879</v>
-      </c>
-      <c r="J4" s="47" t="s">
+      <c r="I4" s="80">
+        <f>NPV(I6,F15,G15,H15,I15,(J15+I3))</f>
+        <v>67046786144.987091</v>
+      </c>
+      <c r="J4" s="78" t="s">
         <v>211</v>
       </c>
-      <c r="K4" s="51">
-        <f>(Financials!O172*-1)/Model!A3</f>
-        <v>0</v>
-      </c>
-      <c r="L4" s="38" t="s">
-        <v>212</v>
-      </c>
-      <c r="M4" s="43"/>
-      <c r="N4" s="116" t="s">
+      <c r="K4" s="81" cm="1">
+        <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
+        <v>3.6259999999999999E-3</v>
+      </c>
+      <c r="L4" s="82" t="s">
+        <v>251</v>
+      </c>
+      <c r="M4" s="35"/>
+      <c r="N4" s="118" t="s">
         <v>213</v>
       </c>
-      <c r="O4" s="117"/>
-      <c r="P4" s="43"/>
-    </row>
-    <row r="5" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="48" cm="1">
+      <c r="O4" s="119"/>
+      <c r="P4" s="35"/>
+      <c r="Q4" s="35"/>
+      <c r="R4" s="35"/>
+    </row>
+    <row r="5" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="75" cm="1">
         <f t="array" ref="A5">_FV(A1,"Shares outstanding",TRUE)</f>
-        <v>310815900</v>
-      </c>
-      <c r="B5" s="45" t="s">
+        <v>315300000</v>
+      </c>
+      <c r="B5" s="76" t="s">
         <v>214</v>
       </c>
-      <c r="C5" s="52">
-        <f>Financials!O34*0.01</f>
-        <v>6.3799999999999996E-2</v>
-      </c>
-      <c r="D5" s="45" t="s">
+      <c r="C5" s="77">
+        <f>F14</f>
+        <v>0.2221542975913926</v>
+      </c>
+      <c r="D5" s="83" t="s">
         <v>215</v>
       </c>
-      <c r="E5" s="46">
-        <f>SUM(C15:E15)/3</f>
+      <c r="E5" s="77">
+        <f>SUM(C16:E16)/3</f>
         <v>0.33083235023866869</v>
       </c>
-      <c r="F5" s="47" t="s">
+      <c r="F5" s="78" t="s">
         <v>216</v>
       </c>
-      <c r="G5" s="48">
+      <c r="G5" s="79">
         <f>Financials!O56</f>
         <v>2390000000</v>
       </c>
-      <c r="H5" s="49" t="s">
+      <c r="H5" s="78" t="s">
         <v>217</v>
       </c>
-      <c r="I5" s="50">
+      <c r="I5" s="80">
         <f>I4+G5-G6</f>
-        <v>70811279593.859879</v>
-      </c>
-      <c r="J5" s="47" t="s">
+        <v>67166086144.987091</v>
+      </c>
+      <c r="J5" s="78" t="s">
         <v>218</v>
       </c>
-      <c r="K5" s="53" cm="1">
+      <c r="K5" s="84" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>242.59</v>
-      </c>
-      <c r="L5" s="36" t="s">
+        <v>296.16000000000003</v>
+      </c>
+      <c r="L5" s="85" t="s">
         <v>219</v>
       </c>
-      <c r="M5" s="43"/>
-      <c r="N5" s="54" t="s">
+      <c r="M5" s="35"/>
+      <c r="N5" s="99" t="s">
         <v>220</v>
       </c>
-      <c r="O5" s="55">
+      <c r="O5" s="100">
         <f>Financials!O21</f>
         <v>27200000</v>
       </c>
-      <c r="P5" s="43"/>
-    </row>
-    <row r="6" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="56">
+      <c r="P5" s="35"/>
+      <c r="Q5" s="35"/>
+      <c r="R5" s="35"/>
+    </row>
+    <row r="6" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="86">
         <f>O20/F10</f>
-        <v>9.2188322754615477</v>
-      </c>
-      <c r="B6" s="45" t="s">
+        <v>11.416951705587481</v>
+      </c>
+      <c r="B6" s="76" t="s">
         <v>221</v>
       </c>
-      <c r="C6" s="46">
-        <f>Financials!O190</f>
-        <v>0.33012016553745266</v>
-      </c>
-      <c r="D6" s="57" t="s">
+      <c r="C6" s="77">
+        <f>F17</f>
+        <v>0.26849248074336718</v>
+      </c>
+      <c r="D6" s="83" t="s">
         <v>200</v>
       </c>
-      <c r="E6" s="46">
+      <c r="E6" s="77">
         <f>Financials!O33/Financials!O126</f>
         <v>0.25148707389613362</v>
       </c>
-      <c r="F6" s="45" t="s">
+      <c r="F6" s="76" t="s">
         <v>222</v>
       </c>
-      <c r="G6" s="50">
+      <c r="G6" s="79">
         <f>Financials!O96+Financials!O105</f>
         <v>2270700000</v>
       </c>
-      <c r="H6" s="49" t="s">
+      <c r="H6" s="78" t="s">
         <v>223</v>
       </c>
-      <c r="I6" s="58">
+      <c r="I6" s="81">
         <f>N25</f>
-        <v>8.6049926153582909E-2</v>
-      </c>
-      <c r="J6" s="49" t="s">
+        <v>8.914785424084383E-2</v>
+      </c>
+      <c r="J6" s="78" t="s">
         <v>224</v>
       </c>
-      <c r="K6" s="59">
+      <c r="K6" s="87">
         <f>I5/G4</f>
-        <v>216.46637605993465</v>
-      </c>
-      <c r="L6" s="60" t="s">
+        <v>202.40316665199381</v>
+      </c>
+      <c r="L6" s="88" t="s">
         <v>225</v>
       </c>
-      <c r="M6" s="43"/>
-      <c r="N6" s="61" t="s">
+      <c r="M6" s="35"/>
+      <c r="N6" s="99" t="s">
         <v>226</v>
       </c>
-      <c r="O6" s="62">
+      <c r="O6" s="100">
         <f>Financials!O96</f>
         <v>1991500000</v>
       </c>
-      <c r="P6" s="43"/>
-    </row>
-    <row r="7" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="63">
+      <c r="P6" s="35"/>
+      <c r="Q6" s="35"/>
+      <c r="R6" s="35"/>
+    </row>
+    <row r="7" spans="1:18" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="89">
         <f>O20/F12</f>
-        <v>41.497429378646117</v>
-      </c>
-      <c r="B7" s="64" t="s">
+        <v>51.391991194276279</v>
+      </c>
+      <c r="B7" s="90" t="s">
         <v>227</v>
       </c>
-      <c r="C7" s="65">
-        <f>F14/A3</f>
-        <v>2.9124348151775531E-2</v>
-      </c>
-      <c r="D7" s="66" t="s">
+      <c r="C7" s="91">
+        <f>F15/A3</f>
+        <v>2.3517002407215788E-2</v>
+      </c>
+      <c r="D7" s="90" t="s">
         <v>228</v>
       </c>
-      <c r="E7" s="67">
+      <c r="E7" s="92">
         <f>(Financials!O16*(1-0.25))/(Financials!O126+Financials!O105+Financials!O96)</f>
         <v>7.227364335298947E-2</v>
       </c>
-      <c r="F7" s="64" t="s">
+      <c r="F7" s="90" t="s">
         <v>196</v>
       </c>
-      <c r="G7" s="68">
+      <c r="G7" s="93">
         <f>(Financials!O96+Financials!O105)/Financials!O126</f>
         <v>1.2987302676733012</v>
       </c>
-      <c r="H7" s="69" t="s">
+      <c r="H7" s="94" t="s">
         <v>229</v>
       </c>
-      <c r="I7" s="70">
+      <c r="I7" s="95">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="J7" s="71" t="s">
+      <c r="J7" s="96" t="s">
         <v>230</v>
       </c>
-      <c r="K7" s="72">
+      <c r="K7" s="97">
         <f>K6/K5-1</f>
-        <v>-0.10768631823267805</v>
-      </c>
-      <c r="L7" s="73" t="s">
+        <v>-0.3165749370205504</v>
+      </c>
+      <c r="L7" s="98" t="s">
         <v>231</v>
       </c>
-      <c r="M7" s="43"/>
-      <c r="N7" s="61" t="s">
+      <c r="M7" s="35"/>
+      <c r="N7" s="99" t="s">
         <v>232</v>
       </c>
-      <c r="O7" s="62">
+      <c r="O7" s="100">
         <f>Financials!O105</f>
         <v>279200000</v>
       </c>
-      <c r="P7" s="43"/>
-    </row>
-    <row r="8" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="74"/>
-      <c r="B8" s="43"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="43"/>
-      <c r="J8" s="43"/>
-      <c r="K8" s="43"/>
-      <c r="L8" s="43"/>
-      <c r="M8" s="43"/>
-      <c r="N8" s="75" t="s">
+      <c r="P7" s="35"/>
+      <c r="Q7" s="35"/>
+      <c r="R7" s="35"/>
+    </row>
+    <row r="8" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="36"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="35"/>
+      <c r="M8" s="35"/>
+      <c r="N8" s="101" t="s">
         <v>213</v>
       </c>
-      <c r="O8" s="76">
+      <c r="O8" s="102">
         <f>O5/(O6+O7)</f>
         <v>1.1978684987008412E-2</v>
       </c>
-      <c r="P8" s="43"/>
-    </row>
-    <row r="9" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="77"/>
-      <c r="B9" s="78">
+      <c r="P8" s="35"/>
+      <c r="Q8" s="35"/>
+      <c r="R8" s="35"/>
+    </row>
+    <row r="9" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="43"/>
+      <c r="B9" s="44">
         <v>2020</v>
       </c>
-      <c r="C9" s="78">
+      <c r="C9" s="44">
         <v>2021</v>
       </c>
-      <c r="D9" s="78">
+      <c r="D9" s="44">
         <v>2022</v>
       </c>
-      <c r="E9" s="78">
+      <c r="E9" s="45">
         <v>2023</v>
       </c>
-      <c r="F9" s="79">
+      <c r="F9" s="46">
         <v>2024</v>
       </c>
-      <c r="G9" s="80">
+      <c r="G9" s="47">
         <v>2025</v>
       </c>
-      <c r="H9" s="80">
+      <c r="H9" s="47">
         <v>2026</v>
       </c>
-      <c r="I9" s="80">
+      <c r="I9" s="47">
         <v>2027</v>
       </c>
-      <c r="J9" s="80">
+      <c r="J9" s="48">
         <v>2028</v>
       </c>
-      <c r="K9" s="81"/>
-      <c r="L9" s="82"/>
-      <c r="M9" s="82"/>
-      <c r="N9" s="61" t="s">
+      <c r="K9" s="49"/>
+      <c r="L9" s="37"/>
+      <c r="M9" s="37"/>
+      <c r="N9" s="99" t="s">
         <v>233</v>
       </c>
-      <c r="O9" s="62">
+      <c r="O9" s="100">
         <f>Financials!O25</f>
         <v>126600000</v>
       </c>
-      <c r="P9" s="43"/>
-    </row>
-    <row r="10" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="83" t="s">
+      <c r="P9" s="35"/>
+      <c r="Q9" s="35"/>
+      <c r="R9" s="35"/>
+    </row>
+    <row r="10" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="50" t="s">
         <v>234</v>
       </c>
-      <c r="B10" s="84">
+      <c r="B10" s="51">
         <v>3408400000</v>
       </c>
-      <c r="C10" s="84">
+      <c r="C10" s="51">
         <v>4256100000</v>
       </c>
-      <c r="D10" s="84">
+      <c r="D10" s="51">
         <v>5501500000</v>
       </c>
-      <c r="E10" s="84">
+      <c r="E10" s="52">
         <v>6892700000</v>
       </c>
-      <c r="F10" s="85">
+      <c r="F10" s="51">
         <v>8179000000</v>
       </c>
-      <c r="G10" s="84">
+      <c r="G10" s="51">
         <v>9690000000</v>
       </c>
-      <c r="H10" s="84">
+      <c r="H10" s="51">
         <v>11400000000</v>
       </c>
-      <c r="I10" s="84">
+      <c r="I10" s="51">
         <v>13783000000</v>
       </c>
-      <c r="J10" s="84">
+      <c r="J10" s="52">
         <v>15884000000</v>
       </c>
-      <c r="K10" s="86" t="s">
+      <c r="K10" s="53" t="s">
         <v>235</v>
       </c>
-      <c r="N10" s="61" t="s">
+      <c r="L10" s="37"/>
+      <c r="N10" s="99" t="s">
         <v>236</v>
       </c>
-      <c r="O10" s="62">
+      <c r="O10" s="100">
         <f>Financials!O24</f>
         <v>566300000</v>
       </c>
-      <c r="P10" s="43"/>
-    </row>
-    <row r="11" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="87"/>
-      <c r="B11" s="88"/>
-      <c r="C11" s="88">
+      <c r="P10" s="35"/>
+      <c r="Q10" s="35"/>
+      <c r="R10" s="35"/>
+    </row>
+    <row r="11" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="54"/>
+      <c r="B11" s="55"/>
+      <c r="C11" s="55">
         <f t="shared" ref="C11:J11" si="0">(C10/B10)-1</f>
         <v>0.24870907170519896</v>
       </c>
-      <c r="D11" s="88">
+      <c r="D11" s="55">
         <f t="shared" si="0"/>
         <v>0.29261530509151568</v>
       </c>
-      <c r="E11" s="88">
+      <c r="E11" s="55">
         <f t="shared" si="0"/>
         <v>0.25287648823048259</v>
       </c>
-      <c r="F11" s="89">
+      <c r="F11" s="56">
         <f t="shared" si="0"/>
         <v>0.18661772599997106</v>
       </c>
-      <c r="G11" s="88">
+      <c r="G11" s="55">
         <f t="shared" si="0"/>
         <v>0.1847414109304315</v>
       </c>
-      <c r="H11" s="88">
+      <c r="H11" s="55">
         <f t="shared" si="0"/>
         <v>0.17647058823529416</v>
       </c>
-      <c r="I11" s="88">
+      <c r="I11" s="55">
         <f t="shared" si="0"/>
         <v>0.20903508771929835</v>
       </c>
-      <c r="J11" s="88">
+      <c r="J11" s="57">
         <f t="shared" si="0"/>
         <v>0.15243415802075022</v>
       </c>
-      <c r="K11" s="90">
+      <c r="K11" s="57">
         <f>SUM(F11:J11)/5</f>
         <v>0.18185979418114906</v>
       </c>
-      <c r="L11" s="82"/>
-      <c r="M11" s="82"/>
-      <c r="N11" s="61" t="s">
+      <c r="L11" s="37"/>
+      <c r="M11" s="37"/>
+      <c r="N11" s="99" t="s">
         <v>237</v>
       </c>
-      <c r="O11" s="91">
+      <c r="O11" s="103">
         <f>O9/O10</f>
         <v>0.22355641885926186</v>
       </c>
-      <c r="P11" s="43"/>
-    </row>
-    <row r="12" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="83" t="s">
+      <c r="P11" s="35"/>
+      <c r="Q11" s="35"/>
+      <c r="R11" s="35"/>
+    </row>
+    <row r="12" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="50" t="s">
         <v>142</v>
       </c>
-      <c r="B12" s="84">
+      <c r="B12" s="51">
         <v>-267000000</v>
       </c>
-      <c r="C12" s="84">
+      <c r="C12" s="51">
         <v>-498900000</v>
       </c>
-      <c r="D12" s="84">
+      <c r="D12" s="51">
         <v>-267000000</v>
       </c>
-      <c r="E12" s="84">
+      <c r="E12" s="51">
         <v>439700000</v>
       </c>
-      <c r="F12" s="85">
+      <c r="F12" s="58">
         <v>1817000000</v>
       </c>
-      <c r="G12" s="84">
+      <c r="G12" s="51">
         <v>2232000000</v>
       </c>
-      <c r="H12" s="84">
+      <c r="H12" s="51">
         <v>2752000000</v>
       </c>
-      <c r="I12" s="84">
+      <c r="I12" s="51">
         <v>3784000000</v>
       </c>
-      <c r="J12" s="84">
+      <c r="J12" s="52">
         <v>4417000000</v>
       </c>
-      <c r="K12" s="86" t="s">
+      <c r="K12" s="59" t="s">
         <v>238</v>
       </c>
-      <c r="L12" s="82"/>
-      <c r="M12" s="82"/>
-      <c r="N12" s="92" t="s">
+      <c r="L12" s="37"/>
+      <c r="M12" s="37"/>
+      <c r="N12" s="99" t="s">
         <v>239</v>
       </c>
-      <c r="O12" s="93">
+      <c r="O12" s="103">
         <f>O8*(1-O11)</f>
         <v>9.3007730686696082E-3</v>
       </c>
-      <c r="P12" s="43"/>
-    </row>
-    <row r="13" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="87"/>
-      <c r="B13" s="88"/>
-      <c r="C13" s="88">
+      <c r="P12" s="35"/>
+      <c r="Q12" s="35"/>
+      <c r="R12" s="35"/>
+    </row>
+    <row r="13" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="54"/>
+      <c r="B13" s="55"/>
+      <c r="C13" s="55">
         <f t="shared" ref="C13:J13" si="1">(C12/B12)-1</f>
         <v>0.86853932584269655</v>
       </c>
-      <c r="D13" s="88">
+      <c r="D13" s="55">
         <f t="shared" si="1"/>
         <v>-0.46482260974143119</v>
       </c>
-      <c r="E13" s="88">
+      <c r="E13" s="55">
         <f t="shared" si="1"/>
         <v>-2.6468164794007492</v>
       </c>
-      <c r="F13" s="89">
+      <c r="F13" s="56">
         <f t="shared" si="1"/>
         <v>3.1323629747555151</v>
       </c>
-      <c r="G13" s="88">
+      <c r="G13" s="55">
         <f t="shared" si="1"/>
         <v>0.22839845899834899</v>
       </c>
-      <c r="H13" s="88">
+      <c r="H13" s="55">
         <f t="shared" si="1"/>
         <v>0.23297491039426532</v>
       </c>
-      <c r="I13" s="88">
+      <c r="I13" s="55">
         <f t="shared" si="1"/>
         <v>0.375</v>
       </c>
-      <c r="J13" s="88">
+      <c r="J13" s="57">
         <f t="shared" si="1"/>
         <v>0.16728329809725162</v>
       </c>
-      <c r="K13" s="90">
+      <c r="K13" s="57">
         <f>SUM(F13:J13)/5</f>
         <v>0.82720392844907631</v>
       </c>
-      <c r="L13" s="82"/>
-      <c r="M13" s="82"/>
-      <c r="N13" s="116" t="s">
+      <c r="L13" s="37"/>
+      <c r="M13" s="37"/>
+      <c r="N13" s="118" t="s">
         <v>240</v>
       </c>
-      <c r="O13" s="117"/>
-      <c r="P13" s="43"/>
-    </row>
-    <row r="14" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="83" t="s">
+      <c r="O13" s="119"/>
+      <c r="P13" s="35"/>
+      <c r="Q13" s="35"/>
+      <c r="R13" s="35"/>
+    </row>
+    <row r="14" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="39" t="s">
+        <v>250</v>
+      </c>
+      <c r="B14" s="40">
+        <f>B12/B10</f>
+        <v>-7.83358760708837E-2</v>
+      </c>
+      <c r="C14" s="40">
+        <f t="shared" ref="C14:J14" si="2">C12/C10</f>
+        <v>-0.11721999013181081</v>
+      </c>
+      <c r="D14" s="40">
+        <f t="shared" si="2"/>
+        <v>-4.8532218485867494E-2</v>
+      </c>
+      <c r="E14" s="40">
+        <f t="shared" si="2"/>
+        <v>6.3792127903434068E-2</v>
+      </c>
+      <c r="F14" s="41">
+        <f t="shared" si="2"/>
+        <v>0.2221542975913926</v>
+      </c>
+      <c r="G14" s="40">
+        <f t="shared" si="2"/>
+        <v>0.23034055727554179</v>
+      </c>
+      <c r="H14" s="40">
+        <f t="shared" si="2"/>
+        <v>0.24140350877192981</v>
+      </c>
+      <c r="I14" s="40">
+        <f t="shared" si="2"/>
+        <v>0.27454110135674381</v>
+      </c>
+      <c r="J14" s="42">
+        <f t="shared" si="2"/>
+        <v>0.27807856962981614</v>
+      </c>
+      <c r="K14" s="42"/>
+      <c r="L14" s="37"/>
+      <c r="M14" s="37"/>
+      <c r="N14" s="99" t="s">
+        <v>242</v>
+      </c>
+      <c r="O14" s="103">
+        <f>'[1]US Treasury Bonds'!$C$8</f>
+        <v>4.2709999999999998E-2</v>
+      </c>
+      <c r="P14" s="35"/>
+      <c r="Q14" s="35"/>
+      <c r="R14" s="35"/>
+    </row>
+    <row r="15" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="50" t="s">
         <v>185</v>
       </c>
-      <c r="B14" s="84">
+      <c r="B15" s="51">
         <v>821300000</v>
       </c>
-      <c r="C14" s="84">
+      <c r="C15" s="51">
         <v>1387000000</v>
       </c>
-      <c r="D14" s="84">
+      <c r="D15" s="51">
         <v>1791900000</v>
       </c>
-      <c r="E14" s="84">
+      <c r="E15" s="51">
         <v>1813019265</v>
       </c>
-      <c r="F14" s="85">
+      <c r="F15" s="58">
         <v>2196000000</v>
       </c>
-      <c r="G14" s="84">
+      <c r="G15" s="51">
         <v>2665000000</v>
       </c>
-      <c r="H14" s="84">
+      <c r="H15" s="51">
         <v>3602000000</v>
       </c>
-      <c r="I14" s="84">
+      <c r="I15" s="51">
         <v>4500000000</v>
       </c>
-      <c r="J14" s="84">
+      <c r="J15" s="52">
         <v>5127000000</v>
       </c>
-      <c r="K14" s="86" t="s">
+      <c r="K15" s="59" t="s">
         <v>241</v>
       </c>
-      <c r="L14" s="82"/>
-      <c r="M14" s="82"/>
-      <c r="N14" s="61" t="s">
-        <v>242</v>
-      </c>
-      <c r="O14" s="91">
-        <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.5710000000000001E-2</v>
-      </c>
-      <c r="P14" s="43"/>
-    </row>
-    <row r="15" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="94"/>
-      <c r="B15" s="88"/>
-      <c r="C15" s="88">
-        <f t="shared" ref="C15:J15" si="2">(C14/B14)-1</f>
+      <c r="L15" s="37"/>
+      <c r="M15" s="37"/>
+      <c r="N15" s="99" t="s">
+        <v>243</v>
+      </c>
+      <c r="O15" s="104" cm="1">
+        <f t="array" ref="O15">_FV(A1,"Beta")</f>
+        <v>1.1717</v>
+      </c>
+      <c r="P15" s="35"/>
+      <c r="Q15" s="35"/>
+      <c r="R15" s="35"/>
+    </row>
+    <row r="16" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="60"/>
+      <c r="B16" s="55"/>
+      <c r="C16" s="55">
+        <f t="shared" ref="C16:J16" si="3">(C15/B15)-1</f>
         <v>0.6887860708632656</v>
       </c>
-      <c r="D15" s="88">
-        <f t="shared" si="2"/>
+      <c r="D16" s="55">
+        <f t="shared" si="3"/>
         <v>0.29192501802451343</v>
       </c>
-      <c r="E15" s="88">
-        <f t="shared" si="2"/>
+      <c r="E16" s="55">
+        <f t="shared" si="3"/>
         <v>1.1785961828226998E-2</v>
       </c>
-      <c r="F15" s="89">
-        <f t="shared" si="2"/>
+      <c r="F16" s="56">
+        <f t="shared" si="3"/>
         <v>0.21123919772578925</v>
       </c>
-      <c r="G15" s="88">
-        <f t="shared" si="2"/>
+      <c r="G16" s="55">
+        <f t="shared" si="3"/>
         <v>0.21357012750455384</v>
       </c>
-      <c r="H15" s="88">
-        <f t="shared" si="2"/>
+      <c r="H16" s="55">
+        <f t="shared" si="3"/>
         <v>0.35159474671669799</v>
       </c>
-      <c r="I15" s="88">
-        <f t="shared" si="2"/>
+      <c r="I16" s="55">
+        <f t="shared" si="3"/>
         <v>0.249305941143809</v>
       </c>
-      <c r="J15" s="88">
-        <f t="shared" si="2"/>
+      <c r="J16" s="57">
+        <f t="shared" si="3"/>
         <v>0.13933333333333331</v>
       </c>
-      <c r="K15" s="90">
-        <f>SUM(F15:J15)/5</f>
+      <c r="K16" s="57">
+        <f>SUM(F16:J16)/5</f>
         <v>0.23300866928483668</v>
       </c>
-      <c r="L15" s="82"/>
-      <c r="M15" s="82"/>
-      <c r="N15" s="61" t="s">
-        <v>243</v>
-      </c>
-      <c r="O15" s="95" cm="1">
-        <f t="array" ref="O15">_FV(A1,"Beta")</f>
-        <v>1.1138999999999999</v>
-      </c>
-      <c r="P15" s="43"/>
-    </row>
-    <row r="16" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="83" t="s">
+      <c r="L16" s="37"/>
+      <c r="M16" s="37"/>
+      <c r="N16" s="99" t="s">
+        <v>244</v>
+      </c>
+      <c r="O16" s="103">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="P16" s="35"/>
+      <c r="Q16" s="35"/>
+      <c r="R16" s="35"/>
+    </row>
+    <row r="17" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="39" t="s">
+        <v>200</v>
+      </c>
+      <c r="B17" s="40">
+        <f>B15/B10</f>
+        <v>0.24096350193639243</v>
+      </c>
+      <c r="C17" s="40">
+        <f t="shared" ref="C17:J17" si="4">C15/C10</f>
+        <v>0.32588520006578792</v>
+      </c>
+      <c r="D17" s="40">
+        <f t="shared" si="4"/>
+        <v>0.32571116968099612</v>
+      </c>
+      <c r="E17" s="42">
+        <f t="shared" si="4"/>
+        <v>0.26303469830400278</v>
+      </c>
+      <c r="F17" s="40">
+        <f t="shared" si="4"/>
+        <v>0.26849248074336718</v>
+      </c>
+      <c r="G17" s="40">
+        <f t="shared" si="4"/>
+        <v>0.27502579979360164</v>
+      </c>
+      <c r="H17" s="40">
+        <f t="shared" si="4"/>
+        <v>0.31596491228070178</v>
+      </c>
+      <c r="I17" s="40">
+        <f t="shared" si="4"/>
+        <v>0.32648915330479578</v>
+      </c>
+      <c r="J17" s="42">
+        <f t="shared" si="4"/>
+        <v>0.32277763787459079</v>
+      </c>
+      <c r="K17" s="42"/>
+      <c r="L17" s="37"/>
+      <c r="M17" s="37"/>
+      <c r="N17" s="105" t="s">
+        <v>240</v>
+      </c>
+      <c r="O17" s="106">
+        <f>(O14)+((O15)*(O16-O14))</f>
+        <v>9.1089493000000007E-2</v>
+      </c>
+      <c r="P17" s="35"/>
+      <c r="Q17" s="35"/>
+      <c r="R17" s="35"/>
+    </row>
+    <row r="18" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="61" t="s">
         <v>196</v>
       </c>
-      <c r="B16" s="96">
+      <c r="B18" s="62">
         <v>-2.9684908789386403E-2</v>
       </c>
-      <c r="C16" s="96">
+      <c r="C18" s="62">
         <v>-5.3003718336044621E-2</v>
       </c>
-      <c r="D16" s="96">
+      <c r="D18" s="62">
         <v>-3.401474933339739E-2</v>
       </c>
-      <c r="E16" s="96">
+      <c r="E18" s="62">
         <v>7.227364335298947E-2</v>
       </c>
-      <c r="F16" s="97"/>
-      <c r="G16" s="98"/>
-      <c r="H16" s="98"/>
-      <c r="I16" s="98"/>
-      <c r="J16" s="98"/>
-      <c r="K16" s="99"/>
-      <c r="L16" s="82"/>
-      <c r="M16" s="82"/>
-      <c r="N16" s="61" t="s">
-        <v>244</v>
-      </c>
-      <c r="O16" s="91">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="P16" s="43"/>
-    </row>
-    <row r="17" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="82"/>
-      <c r="B17" s="100"/>
-      <c r="C17" s="100"/>
-      <c r="D17" s="100"/>
-      <c r="E17" s="100"/>
-      <c r="F17" s="82"/>
-      <c r="G17" s="82"/>
-      <c r="H17" s="82"/>
-      <c r="I17" s="82"/>
-      <c r="J17" s="82"/>
-      <c r="K17" s="82"/>
-      <c r="L17" s="82"/>
-      <c r="M17" s="82"/>
-      <c r="N17" s="101" t="s">
-        <v>240</v>
-      </c>
-      <c r="O17" s="102">
-        <f>(O14)+((O15)*(O16-O14))</f>
-        <v>8.8361230999999998E-2</v>
-      </c>
-      <c r="P17" s="43"/>
-    </row>
-    <row r="18" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="82"/>
-      <c r="B18" s="82"/>
-      <c r="C18" s="82"/>
-      <c r="D18" s="82"/>
-      <c r="E18" s="82"/>
-      <c r="F18" s="82"/>
-      <c r="G18" s="82"/>
-      <c r="H18" s="82"/>
-      <c r="I18" s="82"/>
-      <c r="J18" s="82"/>
-      <c r="K18" s="82"/>
-      <c r="L18" s="82"/>
-      <c r="M18" s="82"/>
-      <c r="N18" s="116" t="s">
+      <c r="F18" s="63"/>
+      <c r="G18" s="62"/>
+      <c r="H18" s="62"/>
+      <c r="I18" s="62"/>
+      <c r="J18" s="64"/>
+      <c r="K18" s="65"/>
+      <c r="L18" s="37"/>
+      <c r="M18" s="37"/>
+      <c r="N18" s="118" t="s">
         <v>245</v>
       </c>
-      <c r="O18" s="117"/>
-      <c r="P18" s="43"/>
-    </row>
-    <row r="19" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="107" t="str" cm="1">
-        <f t="array" ref="A19">_FV(A1,"Industry")</f>
-        <v>Software &amp; IT Services</v>
-      </c>
-      <c r="B19" s="107"/>
-      <c r="C19" s="118" cm="1">
-        <f t="array" ref="C19">_FV(A1,"Year incorporated",TRUE)</f>
-        <v>2005</v>
-      </c>
-      <c r="D19" s="118"/>
-      <c r="E19" s="103"/>
-      <c r="F19" s="82"/>
-      <c r="G19" s="82"/>
-      <c r="H19" s="82"/>
-      <c r="I19" s="82"/>
-      <c r="J19" s="82"/>
-      <c r="K19" s="82"/>
-      <c r="L19" s="82"/>
-      <c r="M19" s="82"/>
-      <c r="N19" s="61" t="s">
+      <c r="O18" s="119"/>
+      <c r="P18" s="35"/>
+      <c r="Q18" s="35"/>
+      <c r="R18" s="35"/>
+    </row>
+    <row r="19" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="37"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="37"/>
+      <c r="K19" s="37"/>
+      <c r="L19" s="37"/>
+      <c r="M19" s="37"/>
+      <c r="N19" s="99" t="s">
         <v>223</v>
       </c>
-      <c r="O19" s="104">
+      <c r="O19" s="107">
         <f>O6+O7</f>
         <v>2270700000</v>
       </c>
-      <c r="P19" s="43"/>
-    </row>
-    <row r="20" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="107" t="str" cm="1">
-        <f t="array" ref="A20">_FV(A1,"Description")</f>
+      <c r="P19" s="35"/>
+      <c r="Q19" s="35"/>
+      <c r="R19" s="35"/>
+    </row>
+    <row r="20" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="37"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="37"/>
+      <c r="K20" s="37"/>
+      <c r="L20" s="37"/>
+      <c r="M20" s="37"/>
+      <c r="N20" s="99" t="s">
+        <v>201</v>
+      </c>
+      <c r="O20" s="107" cm="1">
+        <f t="array" ref="O20">_FV(A1,"Market cap",TRUE)</f>
+        <v>93379248000</v>
+      </c>
+      <c r="P20" s="35"/>
+      <c r="Q20" s="35"/>
+      <c r="R20" s="35"/>
+    </row>
+    <row r="21" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="120" t="str" cm="1">
+        <f t="array" ref="A21">_FV(A1,"Industry")</f>
+        <v>Software &amp; IT Services</v>
+      </c>
+      <c r="B21" s="120"/>
+      <c r="C21" s="121" cm="1">
+        <f t="array" ref="C21">_FV(A1,"Year incorporated",TRUE)</f>
+        <v>2005</v>
+      </c>
+      <c r="D21" s="121"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="37"/>
+      <c r="K21" s="37"/>
+      <c r="M21" s="37"/>
+      <c r="N21" s="99" t="s">
+        <v>246</v>
+      </c>
+      <c r="O21" s="107">
+        <f>O19+O20</f>
+        <v>95649948000</v>
+      </c>
+      <c r="P21" s="35"/>
+      <c r="Q21" s="35"/>
+      <c r="R21" s="35"/>
+    </row>
+    <row r="22" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="120" t="str" cm="1">
+        <f t="array" ref="A22">_FV(A1,"Description")</f>
         <v>Palo Alto Networks, Inc. is a global cybersecurity provider. The Company's cybersecurity platforms and services help secure enterprise users, networks, clouds and endpoints by delivering comprehensive cybersecurity backed by artificial intelligence and automation. The Company focuses on delivering value in four areas, Network Security, Cloud Security, Security Operations and Threat Intelligence and Security Consulting. Its network security platform is designed to deliver complete zero trust solutions to its customers. It enables cloud-native security through its Prisma Cloud platform. As a comprehensive Cloud Native Application Protection Platform (CNAPP), Prisma Cloud secures multi-and hybrid-cloud environments for applications, data and the entire cloud native technology stack across the full development lifecycle, from code to runtime. It delivers security automation, security analytics, endpoint security and attack surface management solutions through its Cortex portfolio.</v>
       </c>
-      <c r="B20" s="107"/>
-      <c r="C20" s="107"/>
-      <c r="D20" s="107"/>
-      <c r="E20" s="107"/>
-      <c r="F20" s="82"/>
-      <c r="G20" s="82"/>
-      <c r="H20" s="82"/>
-      <c r="I20" s="82"/>
-      <c r="J20" s="82"/>
-      <c r="K20" s="82"/>
-      <c r="L20" s="82"/>
-      <c r="M20" s="82"/>
-      <c r="N20" s="61" t="s">
-        <v>201</v>
-      </c>
-      <c r="O20" s="104" cm="1">
-        <f t="array" ref="O20">_FV(A1,"Market cap",TRUE)</f>
-        <v>75400829181</v>
-      </c>
-      <c r="P20" s="43"/>
-    </row>
-    <row r="21" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="107"/>
-      <c r="B21" s="107"/>
-      <c r="C21" s="107"/>
-      <c r="D21" s="107"/>
-      <c r="E21" s="107"/>
-      <c r="F21" s="82"/>
-      <c r="G21" s="82"/>
-      <c r="H21" s="82"/>
-      <c r="I21" s="82"/>
-      <c r="J21" s="82"/>
-      <c r="K21" s="82"/>
-      <c r="M21" s="82"/>
-      <c r="N21" s="61" t="s">
-        <v>246</v>
-      </c>
-      <c r="O21" s="104">
-        <f>O19+O20</f>
-        <v>77671529181</v>
-      </c>
-      <c r="P21" s="43"/>
-    </row>
-    <row r="22" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="107"/>
-      <c r="B22" s="107"/>
-      <c r="C22" s="107"/>
-      <c r="D22" s="107"/>
-      <c r="E22" s="107"/>
-      <c r="F22" s="82"/>
-      <c r="G22" s="82"/>
-      <c r="H22" s="82"/>
-      <c r="I22" s="82"/>
-      <c r="J22" s="82"/>
-      <c r="K22" s="82"/>
-      <c r="L22" s="82"/>
-      <c r="M22" s="82"/>
-      <c r="N22" s="75" t="s">
+      <c r="B22" s="120"/>
+      <c r="C22" s="120"/>
+      <c r="D22" s="120"/>
+      <c r="E22" s="120"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="37"/>
+      <c r="K22" s="37"/>
+      <c r="L22" s="37"/>
+      <c r="M22" s="37"/>
+      <c r="N22" s="101" t="s">
         <v>247</v>
       </c>
-      <c r="O22" s="105">
+      <c r="O22" s="108">
         <f>(O19/O21)</f>
-        <v>2.9234650378886302E-2</v>
-      </c>
-      <c r="P22" s="43"/>
-    </row>
-    <row r="23" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="107"/>
-      <c r="B23" s="107"/>
-      <c r="C23" s="107"/>
-      <c r="D23" s="107"/>
-      <c r="E23" s="107"/>
-      <c r="F23" s="82"/>
-      <c r="G23" s="82"/>
-      <c r="H23" s="82"/>
-      <c r="I23" s="82"/>
-      <c r="J23" s="82"/>
-      <c r="K23" s="82"/>
-      <c r="L23" s="82"/>
-      <c r="M23" s="82"/>
-      <c r="N23" s="101" t="s">
+        <v>2.3739688807776455E-2</v>
+      </c>
+      <c r="P22" s="35"/>
+      <c r="Q22" s="35"/>
+      <c r="R22" s="35"/>
+    </row>
+    <row r="23" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="120"/>
+      <c r="B23" s="120"/>
+      <c r="C23" s="120"/>
+      <c r="D23" s="120"/>
+      <c r="E23" s="120"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="37"/>
+      <c r="J23" s="37"/>
+      <c r="K23" s="37"/>
+      <c r="L23" s="37"/>
+      <c r="M23" s="37"/>
+      <c r="N23" s="105" t="s">
         <v>248</v>
       </c>
-      <c r="O23" s="106">
+      <c r="O23" s="109">
         <f>O20/O21</f>
-        <v>0.97076534962111372</v>
-      </c>
-      <c r="P23" s="43"/>
-    </row>
-    <row r="24" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="107"/>
-      <c r="B24" s="107"/>
-      <c r="C24" s="107"/>
-      <c r="D24" s="107"/>
-      <c r="E24" s="107"/>
-      <c r="F24" s="82"/>
-      <c r="G24" s="82"/>
-      <c r="H24" s="82"/>
-      <c r="I24" s="82"/>
-      <c r="J24" s="82"/>
-      <c r="K24" s="82"/>
-      <c r="L24" s="82"/>
-      <c r="M24" s="82"/>
-      <c r="N24" s="108" t="s">
+        <v>0.97626031119222356</v>
+      </c>
+      <c r="P23" s="35"/>
+      <c r="Q23" s="35"/>
+      <c r="R23" s="35"/>
+    </row>
+    <row r="24" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="120"/>
+      <c r="B24" s="120"/>
+      <c r="C24" s="120"/>
+      <c r="D24" s="120"/>
+      <c r="E24" s="120"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="37"/>
+      <c r="J24" s="37"/>
+      <c r="K24" s="37"/>
+      <c r="L24" s="37"/>
+      <c r="M24" s="37"/>
+      <c r="N24" s="110" t="s">
         <v>249</v>
       </c>
-      <c r="O24" s="109"/>
-      <c r="P24" s="43"/>
-    </row>
-    <row r="25" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="107"/>
-      <c r="B25" s="107"/>
-      <c r="C25" s="107"/>
-      <c r="D25" s="107"/>
-      <c r="E25" s="107"/>
-      <c r="F25" s="82"/>
-      <c r="G25" s="82"/>
-      <c r="H25" s="82"/>
-      <c r="I25" s="82"/>
-      <c r="J25" s="82"/>
-      <c r="K25" s="82"/>
-      <c r="L25" s="82"/>
-      <c r="M25" s="82"/>
-      <c r="N25" s="110">
+      <c r="O24" s="111"/>
+      <c r="P24" s="35"/>
+      <c r="Q24" s="35"/>
+      <c r="R24" s="35"/>
+    </row>
+    <row r="25" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="120"/>
+      <c r="B25" s="120"/>
+      <c r="C25" s="120"/>
+      <c r="D25" s="120"/>
+      <c r="E25" s="120"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="37"/>
+      <c r="I25" s="37"/>
+      <c r="J25" s="37"/>
+      <c r="K25" s="37"/>
+      <c r="L25" s="37"/>
+      <c r="M25" s="37"/>
+      <c r="N25" s="112">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>8.6049926153582909E-2</v>
-      </c>
-      <c r="O25" s="111"/>
-      <c r="P25" s="43"/>
-    </row>
-    <row r="26" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="107"/>
-      <c r="B26" s="107"/>
-      <c r="C26" s="107"/>
-      <c r="D26" s="107"/>
-      <c r="E26" s="107"/>
-      <c r="F26" s="82"/>
-      <c r="G26" s="82"/>
-      <c r="H26" s="82"/>
-      <c r="I26" s="82"/>
-      <c r="J26" s="82"/>
-      <c r="K26" s="82"/>
-      <c r="L26" s="82"/>
-      <c r="M26" s="82"/>
-      <c r="N26" s="82"/>
-      <c r="O26" s="43"/>
-      <c r="P26" s="43"/>
-    </row>
-    <row r="27" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="107"/>
-      <c r="B27" s="107"/>
-      <c r="C27" s="107"/>
-      <c r="D27" s="107"/>
-      <c r="E27" s="107"/>
-      <c r="F27" s="82"/>
-      <c r="G27" s="82"/>
-      <c r="H27" s="82"/>
-      <c r="I27" s="82"/>
-      <c r="J27" s="82"/>
-      <c r="K27" s="82"/>
-      <c r="L27" s="82"/>
-      <c r="M27" s="82"/>
-      <c r="N27" s="82"/>
-      <c r="O27" s="43"/>
-      <c r="P27" s="43"/>
-    </row>
-    <row r="28" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="82"/>
-      <c r="B28" s="82"/>
-      <c r="C28" s="82"/>
-      <c r="D28" s="82"/>
-      <c r="E28" s="82"/>
-      <c r="F28" s="82"/>
-      <c r="G28" s="82"/>
-      <c r="H28" s="82"/>
-      <c r="I28" s="82"/>
-      <c r="J28" s="82"/>
-      <c r="K28" s="82"/>
-      <c r="L28" s="82"/>
-      <c r="M28" s="82"/>
-      <c r="N28" s="82"/>
-      <c r="O28" s="43"/>
-      <c r="P28" s="43"/>
-    </row>
-    <row r="29" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="82"/>
-      <c r="B29" s="82"/>
-      <c r="C29" s="82"/>
-      <c r="D29" s="82"/>
-      <c r="E29" s="82"/>
-      <c r="F29" s="82"/>
-      <c r="G29" s="82"/>
-      <c r="H29" s="82"/>
-      <c r="I29" s="82"/>
-      <c r="J29" s="82"/>
-      <c r="K29" s="82"/>
-      <c r="L29" s="82"/>
-      <c r="M29" s="82"/>
-      <c r="N29" s="82"/>
-      <c r="O29" s="43"/>
-      <c r="P29" s="43"/>
-    </row>
-    <row r="30" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="82"/>
-      <c r="B30" s="82"/>
-      <c r="C30" s="82"/>
-      <c r="D30" s="82"/>
-      <c r="E30" s="82"/>
-      <c r="F30" s="82"/>
-      <c r="G30" s="82"/>
-      <c r="H30" s="82"/>
-      <c r="I30" s="82"/>
-      <c r="J30" s="82"/>
-      <c r="K30" s="82"/>
-      <c r="L30" s="82"/>
-      <c r="M30" s="82"/>
-      <c r="N30" s="82"/>
-      <c r="O30" s="43"/>
-      <c r="P30" s="43"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A31" s="43"/>
-      <c r="B31" s="43"/>
-      <c r="C31" s="43"/>
-      <c r="D31" s="43"/>
-      <c r="E31" s="43"/>
-      <c r="F31" s="43"/>
-      <c r="G31" s="43"/>
-      <c r="H31" s="43"/>
-      <c r="I31" s="43"/>
-      <c r="J31" s="43"/>
-      <c r="K31" s="43"/>
-      <c r="L31" s="43"/>
-      <c r="M31" s="43"/>
-      <c r="N31" s="43"/>
-      <c r="O31" s="43"/>
-      <c r="P31" s="43"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A32" s="43"/>
-      <c r="B32" s="43"/>
-      <c r="C32" s="43"/>
-      <c r="D32" s="43"/>
-      <c r="E32" s="43"/>
-      <c r="F32" s="43"/>
-      <c r="G32" s="43"/>
-      <c r="H32" s="43"/>
-      <c r="I32" s="43"/>
-      <c r="J32" s="43"/>
-      <c r="K32" s="43"/>
-      <c r="L32" s="43"/>
-      <c r="M32" s="43"/>
-      <c r="N32" s="43"/>
-      <c r="O32" s="43"/>
-      <c r="P32" s="43"/>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A33" s="82"/>
-      <c r="B33" s="82"/>
-      <c r="C33" s="82"/>
-      <c r="D33" s="82"/>
-      <c r="E33" s="82"/>
-      <c r="F33" s="82"/>
-      <c r="G33" s="82"/>
-      <c r="H33" s="82"/>
-      <c r="I33" s="82"/>
-      <c r="J33" s="82"/>
-      <c r="K33" s="82"/>
-      <c r="L33" s="82"/>
-      <c r="M33" s="82"/>
-      <c r="N33" s="82"/>
-      <c r="O33" s="82"/>
-      <c r="P33" s="82"/>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A34" s="82"/>
-      <c r="B34" s="82"/>
-      <c r="C34" s="82"/>
-      <c r="D34" s="82"/>
-      <c r="E34" s="82"/>
-      <c r="F34" s="82"/>
-      <c r="G34" s="82"/>
-      <c r="H34" s="82"/>
-      <c r="I34" s="82"/>
-      <c r="J34" s="82"/>
-      <c r="K34" s="82"/>
-      <c r="L34" s="82"/>
-      <c r="M34" s="82"/>
-      <c r="N34" s="82"/>
-      <c r="O34" s="82"/>
-      <c r="P34" s="82"/>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A35" s="82"/>
-      <c r="B35" s="82"/>
-      <c r="C35" s="82"/>
-      <c r="D35" s="82"/>
-      <c r="E35" s="82"/>
-      <c r="F35" s="82"/>
-      <c r="G35" s="82"/>
-      <c r="H35" s="82"/>
-      <c r="I35" s="82"/>
-      <c r="J35" s="82"/>
-      <c r="K35" s="82"/>
-      <c r="L35" s="82"/>
-      <c r="M35" s="82"/>
-      <c r="N35" s="82"/>
-      <c r="O35" s="82"/>
-      <c r="P35" s="82"/>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A36" s="82"/>
-      <c r="B36" s="82"/>
-      <c r="C36" s="82"/>
-      <c r="D36" s="82"/>
-      <c r="E36" s="82"/>
-      <c r="F36" s="82"/>
-      <c r="G36" s="82"/>
-      <c r="H36" s="82"/>
-      <c r="I36" s="82"/>
-      <c r="J36" s="82"/>
-      <c r="K36" s="82"/>
-      <c r="L36" s="82"/>
-      <c r="M36" s="82"/>
-      <c r="N36" s="82"/>
-      <c r="O36" s="82"/>
-      <c r="P36" s="82"/>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A37" s="82"/>
-      <c r="B37" s="82"/>
-      <c r="C37" s="82"/>
-      <c r="D37" s="82"/>
-      <c r="E37" s="82"/>
-      <c r="F37" s="82"/>
-      <c r="G37" s="82"/>
-      <c r="H37" s="82"/>
-      <c r="I37" s="82"/>
-      <c r="J37" s="82"/>
-      <c r="K37" s="82"/>
-      <c r="L37" s="82"/>
-      <c r="M37" s="82"/>
-      <c r="N37" s="82"/>
-      <c r="O37" s="82"/>
-      <c r="P37" s="82"/>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A38" s="82"/>
-      <c r="B38" s="82"/>
-      <c r="C38" s="82"/>
-      <c r="D38" s="82"/>
-      <c r="E38" s="82"/>
-      <c r="F38" s="82"/>
-      <c r="G38" s="82"/>
-      <c r="H38" s="82"/>
-      <c r="I38" s="82"/>
-      <c r="J38" s="82"/>
-      <c r="K38" s="82"/>
-      <c r="L38" s="82"/>
-      <c r="M38" s="82"/>
-      <c r="N38" s="82"/>
-      <c r="O38" s="82"/>
-      <c r="P38" s="82"/>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A39" s="82"/>
-      <c r="B39" s="82"/>
-      <c r="C39" s="82"/>
-      <c r="D39" s="82"/>
-      <c r="E39" s="82"/>
-      <c r="F39" s="82"/>
-      <c r="G39" s="82"/>
-      <c r="H39" s="82"/>
-      <c r="I39" s="82"/>
-      <c r="J39" s="82"/>
-      <c r="K39" s="82"/>
-      <c r="L39" s="82"/>
-      <c r="M39" s="82"/>
-      <c r="N39" s="82"/>
-      <c r="O39" s="82"/>
-      <c r="P39" s="82"/>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A40" s="82"/>
-      <c r="B40" s="82"/>
-      <c r="C40" s="82"/>
-      <c r="D40" s="82"/>
-      <c r="E40" s="82"/>
-      <c r="F40" s="82"/>
-      <c r="G40" s="82"/>
-      <c r="H40" s="82"/>
-      <c r="I40" s="82"/>
-      <c r="J40" s="82"/>
-      <c r="K40" s="82"/>
-      <c r="L40" s="82"/>
-      <c r="M40" s="82"/>
-      <c r="N40" s="82"/>
-      <c r="O40" s="82"/>
-      <c r="P40" s="82"/>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A41" s="82"/>
-      <c r="B41" s="82"/>
-      <c r="C41" s="82"/>
-      <c r="D41" s="82"/>
-      <c r="E41" s="82"/>
-      <c r="F41" s="82"/>
-      <c r="G41" s="82"/>
-      <c r="H41" s="82"/>
-      <c r="I41" s="82"/>
-      <c r="J41" s="82"/>
-      <c r="K41" s="82"/>
-      <c r="L41" s="82"/>
-      <c r="M41" s="82"/>
-      <c r="N41" s="82"/>
-      <c r="O41" s="82"/>
-      <c r="P41" s="82"/>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A42" s="82"/>
-      <c r="B42" s="82"/>
-      <c r="C42" s="82"/>
-      <c r="D42" s="82"/>
-      <c r="E42" s="82"/>
-      <c r="F42" s="82"/>
-      <c r="G42" s="82"/>
-      <c r="H42" s="82"/>
-      <c r="I42" s="82"/>
-      <c r="J42" s="82"/>
-      <c r="K42" s="82"/>
-      <c r="L42" s="82"/>
-      <c r="M42" s="82"/>
-      <c r="N42" s="82"/>
-      <c r="O42" s="82"/>
-      <c r="P42" s="82"/>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A43" s="82"/>
-      <c r="B43" s="82"/>
-      <c r="C43" s="82"/>
-      <c r="D43" s="82"/>
-      <c r="E43" s="82"/>
-      <c r="F43" s="82"/>
-      <c r="G43" s="82"/>
-      <c r="H43" s="82"/>
-      <c r="I43" s="82"/>
-      <c r="J43" s="82"/>
-      <c r="K43" s="82"/>
-      <c r="L43" s="82"/>
-      <c r="M43" s="82"/>
-      <c r="N43" s="82"/>
-      <c r="O43" s="82"/>
-      <c r="P43" s="82"/>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A44" s="82"/>
-      <c r="B44" s="82"/>
-      <c r="C44" s="82"/>
-      <c r="D44" s="82"/>
-      <c r="E44" s="82"/>
-      <c r="F44" s="82"/>
-      <c r="G44" s="82"/>
-      <c r="H44" s="82"/>
-      <c r="I44" s="82"/>
-      <c r="J44" s="82"/>
-      <c r="K44" s="82"/>
-      <c r="L44" s="82"/>
-      <c r="M44" s="82"/>
-      <c r="N44" s="82"/>
-      <c r="O44" s="82"/>
-      <c r="P44" s="82"/>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A45" s="82"/>
-      <c r="B45" s="82"/>
-      <c r="C45" s="82"/>
-      <c r="D45" s="82"/>
-      <c r="E45" s="82"/>
-      <c r="F45" s="82"/>
-      <c r="G45" s="82"/>
-      <c r="H45" s="82"/>
-      <c r="I45" s="82"/>
-      <c r="J45" s="82"/>
-      <c r="K45" s="82"/>
-      <c r="L45" s="82"/>
-      <c r="M45" s="82"/>
-      <c r="N45" s="82"/>
-      <c r="O45" s="82"/>
-      <c r="P45" s="82"/>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A46" s="82"/>
-      <c r="B46" s="82"/>
-      <c r="C46" s="82"/>
-      <c r="D46" s="82"/>
-      <c r="E46" s="82"/>
-      <c r="F46" s="82"/>
-      <c r="G46" s="82"/>
-      <c r="H46" s="82"/>
-      <c r="I46" s="82"/>
-      <c r="J46" s="82"/>
-      <c r="K46" s="82"/>
-      <c r="L46" s="82"/>
-      <c r="M46" s="82"/>
-      <c r="N46" s="82"/>
-      <c r="O46" s="82"/>
-      <c r="P46" s="82"/>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A47" s="82"/>
-      <c r="B47" s="82"/>
-      <c r="C47" s="82"/>
-      <c r="D47" s="82"/>
-      <c r="E47" s="82"/>
-      <c r="F47" s="82"/>
-      <c r="G47" s="82"/>
-      <c r="H47" s="82"/>
-      <c r="I47" s="82"/>
-      <c r="J47" s="82"/>
-      <c r="K47" s="82"/>
-      <c r="L47" s="82"/>
-      <c r="M47" s="82"/>
-      <c r="N47" s="82"/>
-      <c r="O47" s="82"/>
-      <c r="P47" s="82"/>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A48" s="82"/>
-      <c r="B48" s="82"/>
-      <c r="C48" s="82"/>
-      <c r="D48" s="82"/>
-      <c r="E48" s="82"/>
-      <c r="F48" s="82"/>
-      <c r="G48" s="82"/>
-      <c r="H48" s="82"/>
-      <c r="I48" s="82"/>
-      <c r="J48" s="82"/>
-      <c r="K48" s="82"/>
-      <c r="L48" s="82"/>
-      <c r="M48" s="82"/>
-      <c r="N48" s="82"/>
-      <c r="O48" s="82"/>
-      <c r="P48" s="82"/>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A49" s="82"/>
-      <c r="B49" s="82"/>
-      <c r="C49" s="82"/>
-      <c r="D49" s="82"/>
-      <c r="E49" s="82"/>
-      <c r="F49" s="82"/>
-      <c r="G49" s="82"/>
-      <c r="H49" s="82"/>
-      <c r="I49" s="82"/>
-      <c r="J49" s="82"/>
-      <c r="K49" s="82"/>
-      <c r="L49" s="82"/>
-      <c r="M49" s="82"/>
-      <c r="N49" s="82"/>
-      <c r="O49" s="82"/>
-      <c r="P49" s="82"/>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A50" s="82"/>
-      <c r="B50" s="82"/>
-      <c r="C50" s="82"/>
-      <c r="D50" s="82"/>
-      <c r="E50" s="82"/>
-      <c r="F50" s="82"/>
-      <c r="G50" s="82"/>
-      <c r="H50" s="82"/>
-      <c r="I50" s="82"/>
-      <c r="J50" s="82"/>
-      <c r="K50" s="82"/>
-      <c r="L50" s="82"/>
-      <c r="M50" s="82"/>
-      <c r="N50" s="82"/>
-      <c r="O50" s="82"/>
-      <c r="P50" s="82"/>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A51" s="82"/>
-      <c r="B51" s="82"/>
-      <c r="C51" s="82"/>
-      <c r="D51" s="82"/>
-      <c r="E51" s="82"/>
-      <c r="F51" s="82"/>
-      <c r="G51" s="82"/>
-      <c r="H51" s="82"/>
-      <c r="I51" s="82"/>
-      <c r="J51" s="82"/>
-      <c r="K51" s="82"/>
-      <c r="L51" s="82"/>
-      <c r="M51" s="82"/>
-      <c r="N51" s="82"/>
-      <c r="O51" s="82"/>
-      <c r="P51" s="82"/>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A52" s="82"/>
-      <c r="B52" s="82"/>
-      <c r="C52" s="82"/>
-      <c r="D52" s="82"/>
-      <c r="E52" s="82"/>
-      <c r="F52" s="82"/>
-      <c r="G52" s="82"/>
-      <c r="H52" s="82"/>
-      <c r="I52" s="82"/>
-      <c r="J52" s="82"/>
-      <c r="K52" s="82"/>
-      <c r="L52" s="82"/>
-      <c r="M52" s="82"/>
-      <c r="N52" s="82"/>
-      <c r="O52" s="82"/>
-      <c r="P52" s="82"/>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A53" s="82"/>
-      <c r="B53" s="82"/>
-      <c r="C53" s="82"/>
-      <c r="D53" s="82"/>
-      <c r="E53" s="82"/>
-      <c r="F53" s="82"/>
-      <c r="G53" s="82"/>
-      <c r="H53" s="82"/>
-      <c r="I53" s="82"/>
-      <c r="J53" s="82"/>
-      <c r="K53" s="82"/>
-      <c r="L53" s="82"/>
-      <c r="M53" s="82"/>
-      <c r="N53" s="82"/>
-      <c r="O53" s="82"/>
-      <c r="P53" s="82"/>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A54" s="82"/>
-      <c r="B54" s="82"/>
-      <c r="C54" s="82"/>
-      <c r="D54" s="82"/>
-      <c r="E54" s="82"/>
-      <c r="F54" s="82"/>
-      <c r="G54" s="82"/>
-      <c r="H54" s="82"/>
-      <c r="I54" s="82"/>
-      <c r="J54" s="82"/>
-      <c r="K54" s="82"/>
-      <c r="L54" s="82"/>
-      <c r="M54" s="82"/>
-      <c r="N54" s="82"/>
-      <c r="O54" s="82"/>
-      <c r="P54" s="82"/>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A55" s="82"/>
-      <c r="B55" s="82"/>
-      <c r="C55" s="82"/>
-      <c r="D55" s="82"/>
-      <c r="E55" s="82"/>
-      <c r="F55" s="82"/>
-      <c r="G55" s="82"/>
-      <c r="H55" s="82"/>
-      <c r="I55" s="82"/>
-      <c r="J55" s="82"/>
-      <c r="K55" s="82"/>
-      <c r="L55" s="82"/>
-      <c r="M55" s="82"/>
-      <c r="N55" s="82"/>
-      <c r="O55" s="82"/>
-      <c r="P55" s="82"/>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A56" s="82"/>
-      <c r="B56" s="82"/>
-      <c r="C56" s="82"/>
-      <c r="D56" s="82"/>
-      <c r="E56" s="82"/>
-      <c r="F56" s="82"/>
-      <c r="G56" s="82"/>
-      <c r="H56" s="82"/>
-      <c r="I56" s="82"/>
-      <c r="J56" s="82"/>
-      <c r="K56" s="82"/>
-      <c r="L56" s="82"/>
-      <c r="M56" s="82"/>
-      <c r="N56" s="82"/>
-      <c r="O56" s="82"/>
-      <c r="P56" s="82"/>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A57" s="82"/>
-      <c r="B57" s="82"/>
-      <c r="C57" s="82"/>
-      <c r="D57" s="82"/>
-      <c r="E57" s="82"/>
-      <c r="F57" s="82"/>
-      <c r="G57" s="82"/>
-      <c r="H57" s="82"/>
-      <c r="I57" s="82"/>
-      <c r="J57" s="82"/>
-      <c r="K57" s="82"/>
-      <c r="L57" s="82"/>
-      <c r="M57" s="82"/>
-      <c r="N57" s="82"/>
-      <c r="O57" s="82"/>
-      <c r="P57" s="82"/>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A58" s="82"/>
-      <c r="B58" s="82"/>
-      <c r="C58" s="82"/>
-      <c r="D58" s="82"/>
-      <c r="E58" s="82"/>
-      <c r="F58" s="82"/>
-      <c r="G58" s="82"/>
-      <c r="H58" s="82"/>
-      <c r="I58" s="82"/>
-      <c r="J58" s="82"/>
-      <c r="K58" s="82"/>
-      <c r="L58" s="82"/>
-      <c r="M58" s="82"/>
-      <c r="N58" s="82"/>
-      <c r="O58" s="82"/>
-      <c r="P58" s="82"/>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A59" s="82"/>
-      <c r="B59" s="82"/>
-      <c r="C59" s="82"/>
-      <c r="D59" s="82"/>
-      <c r="E59" s="82"/>
-      <c r="F59" s="82"/>
-      <c r="G59" s="82"/>
-      <c r="H59" s="82"/>
-      <c r="I59" s="82"/>
-      <c r="J59" s="82"/>
-      <c r="K59" s="82"/>
-      <c r="L59" s="82"/>
-      <c r="M59" s="82"/>
-      <c r="N59" s="82"/>
-      <c r="O59" s="82"/>
-      <c r="P59" s="82"/>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A60" s="82"/>
-      <c r="B60" s="82"/>
-      <c r="C60" s="82"/>
-      <c r="D60" s="82"/>
-      <c r="E60" s="82"/>
-      <c r="F60" s="82"/>
-      <c r="G60" s="82"/>
-      <c r="H60" s="82"/>
-      <c r="I60" s="82"/>
-      <c r="J60" s="82"/>
-      <c r="K60" s="82"/>
-      <c r="L60" s="82"/>
-      <c r="M60" s="82"/>
-      <c r="N60" s="82"/>
-      <c r="O60" s="82"/>
-      <c r="P60" s="82"/>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A61" s="82"/>
-      <c r="B61" s="82"/>
-      <c r="C61" s="82"/>
-      <c r="D61" s="82"/>
-      <c r="E61" s="82"/>
-      <c r="F61" s="82"/>
-      <c r="G61" s="82"/>
-      <c r="H61" s="82"/>
-      <c r="I61" s="82"/>
-      <c r="J61" s="82"/>
-      <c r="K61" s="82"/>
-      <c r="L61" s="82"/>
-      <c r="M61" s="82"/>
-      <c r="N61" s="82"/>
-      <c r="O61" s="82"/>
-      <c r="P61" s="82"/>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="O62" s="43"/>
-      <c r="P62" s="43"/>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="O63" s="43"/>
-      <c r="P63" s="43"/>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="O64" s="43"/>
-      <c r="P64" s="43"/>
+        <v>8.914785424084383E-2</v>
+      </c>
+      <c r="O25" s="113"/>
+      <c r="P25" s="35"/>
+      <c r="Q25" s="35"/>
+      <c r="R25" s="35"/>
+    </row>
+    <row r="26" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="120"/>
+      <c r="B26" s="120"/>
+      <c r="C26" s="120"/>
+      <c r="D26" s="120"/>
+      <c r="E26" s="120"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="37"/>
+      <c r="I26" s="37"/>
+      <c r="J26" s="37"/>
+      <c r="K26" s="37"/>
+      <c r="L26" s="37"/>
+      <c r="M26" s="37"/>
+      <c r="N26" s="37"/>
+      <c r="O26" s="35"/>
+      <c r="P26" s="35"/>
+      <c r="Q26" s="35"/>
+      <c r="R26" s="35"/>
+    </row>
+    <row r="27" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="120"/>
+      <c r="B27" s="120"/>
+      <c r="C27" s="120"/>
+      <c r="D27" s="120"/>
+      <c r="E27" s="120"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="37"/>
+      <c r="I27" s="37"/>
+      <c r="J27" s="37"/>
+      <c r="K27" s="37"/>
+      <c r="L27" s="37"/>
+      <c r="M27" s="37"/>
+      <c r="N27" s="37"/>
+      <c r="O27" s="35"/>
+      <c r="P27" s="35"/>
+      <c r="Q27" s="35"/>
+      <c r="R27" s="35"/>
+    </row>
+    <row r="28" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="120"/>
+      <c r="B28" s="120"/>
+      <c r="C28" s="120"/>
+      <c r="D28" s="120"/>
+      <c r="E28" s="120"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="37"/>
+      <c r="I28" s="37"/>
+      <c r="J28" s="37"/>
+      <c r="K28" s="37"/>
+      <c r="L28" s="37"/>
+      <c r="M28" s="37"/>
+      <c r="N28" s="37"/>
+      <c r="O28" s="35"/>
+      <c r="P28" s="35"/>
+      <c r="Q28" s="35"/>
+      <c r="R28" s="35"/>
+    </row>
+    <row r="29" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="120"/>
+      <c r="B29" s="120"/>
+      <c r="C29" s="120"/>
+      <c r="D29" s="120"/>
+      <c r="E29" s="120"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="37"/>
+      <c r="I29" s="37"/>
+      <c r="J29" s="37"/>
+      <c r="K29" s="37"/>
+      <c r="L29" s="37"/>
+      <c r="M29" s="37"/>
+      <c r="N29" s="37"/>
+      <c r="O29" s="35"/>
+      <c r="P29" s="35"/>
+      <c r="Q29" s="35"/>
+      <c r="R29" s="35"/>
+    </row>
+    <row r="30" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="120"/>
+      <c r="B30" s="120"/>
+      <c r="C30" s="120"/>
+      <c r="D30" s="120"/>
+      <c r="E30" s="120"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="37"/>
+      <c r="I30" s="37"/>
+      <c r="J30" s="37"/>
+      <c r="K30" s="37"/>
+      <c r="L30" s="37"/>
+      <c r="M30" s="37"/>
+      <c r="N30" s="37"/>
+      <c r="O30" s="35"/>
+      <c r="P30" s="35"/>
+      <c r="Q30" s="35"/>
+      <c r="R30" s="35"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A31" s="35"/>
+      <c r="B31" s="35"/>
+      <c r="C31" s="35"/>
+      <c r="D31" s="35"/>
+      <c r="E31" s="35"/>
+      <c r="F31" s="35"/>
+      <c r="G31" s="35"/>
+      <c r="H31" s="35"/>
+      <c r="I31" s="35"/>
+      <c r="J31" s="35"/>
+      <c r="K31" s="35"/>
+      <c r="L31" s="35"/>
+      <c r="M31" s="35"/>
+      <c r="N31" s="35"/>
+      <c r="O31" s="35"/>
+      <c r="P31" s="35"/>
+      <c r="Q31" s="35"/>
+      <c r="R31" s="35"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A32" s="35"/>
+      <c r="B32" s="35"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="35"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="35"/>
+      <c r="G32" s="35"/>
+      <c r="H32" s="35"/>
+      <c r="I32" s="35"/>
+      <c r="J32" s="35"/>
+      <c r="K32" s="35"/>
+      <c r="L32" s="35"/>
+      <c r="M32" s="35"/>
+      <c r="N32" s="35"/>
+      <c r="O32" s="35"/>
+      <c r="P32" s="35"/>
+      <c r="Q32" s="35"/>
+      <c r="R32" s="35"/>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A33" s="37"/>
+      <c r="B33" s="37"/>
+      <c r="C33" s="37"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="37"/>
+      <c r="F33" s="37"/>
+      <c r="G33" s="37"/>
+      <c r="H33" s="37"/>
+      <c r="I33" s="37"/>
+      <c r="J33" s="37"/>
+      <c r="K33" s="37"/>
+      <c r="L33" s="37"/>
+      <c r="M33" s="37"/>
+      <c r="N33" s="37"/>
+      <c r="O33" s="37"/>
+      <c r="P33" s="37"/>
+      <c r="Q33" s="37"/>
+      <c r="R33" s="37"/>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A34" s="37"/>
+      <c r="B34" s="37"/>
+      <c r="C34" s="37"/>
+      <c r="D34" s="37"/>
+      <c r="E34" s="37"/>
+      <c r="F34" s="37"/>
+      <c r="G34" s="37"/>
+      <c r="H34" s="37"/>
+      <c r="I34" s="37"/>
+      <c r="J34" s="37"/>
+      <c r="K34" s="37"/>
+      <c r="L34" s="37"/>
+      <c r="M34" s="37"/>
+      <c r="N34" s="37"/>
+      <c r="O34" s="37"/>
+      <c r="P34" s="37"/>
+      <c r="Q34" s="37"/>
+      <c r="R34" s="37"/>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A35" s="37"/>
+      <c r="B35" s="37"/>
+      <c r="C35" s="37"/>
+      <c r="D35" s="37"/>
+      <c r="E35" s="37"/>
+      <c r="F35" s="37"/>
+      <c r="G35" s="37"/>
+      <c r="H35" s="37"/>
+      <c r="I35" s="37"/>
+      <c r="J35" s="37"/>
+      <c r="K35" s="37"/>
+      <c r="L35" s="37"/>
+      <c r="M35" s="37"/>
+      <c r="N35" s="37"/>
+      <c r="O35" s="37"/>
+      <c r="P35" s="37"/>
+      <c r="Q35" s="37"/>
+      <c r="R35" s="37"/>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A36" s="37"/>
+      <c r="B36" s="37"/>
+      <c r="C36" s="37"/>
+      <c r="D36" s="37"/>
+      <c r="E36" s="37"/>
+      <c r="F36" s="37"/>
+      <c r="G36" s="37"/>
+      <c r="H36" s="37"/>
+      <c r="I36" s="37"/>
+      <c r="J36" s="37"/>
+      <c r="K36" s="37"/>
+      <c r="L36" s="37"/>
+      <c r="M36" s="37"/>
+      <c r="N36" s="37"/>
+      <c r="O36" s="37"/>
+      <c r="P36" s="37"/>
+      <c r="Q36" s="37"/>
+      <c r="R36" s="37"/>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A37" s="37"/>
+      <c r="B37" s="37"/>
+      <c r="C37" s="37"/>
+      <c r="D37" s="37"/>
+      <c r="E37" s="37"/>
+      <c r="F37" s="37"/>
+      <c r="G37" s="37"/>
+      <c r="H37" s="37"/>
+      <c r="I37" s="37"/>
+      <c r="J37" s="37"/>
+      <c r="K37" s="37"/>
+      <c r="L37" s="37"/>
+      <c r="M37" s="37"/>
+      <c r="N37" s="37"/>
+      <c r="O37" s="37"/>
+      <c r="P37" s="37"/>
+      <c r="Q37" s="37"/>
+      <c r="R37" s="37"/>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A38" s="37"/>
+      <c r="B38" s="37"/>
+      <c r="C38" s="37"/>
+      <c r="D38" s="37"/>
+      <c r="E38" s="37"/>
+      <c r="F38" s="37"/>
+      <c r="G38" s="37"/>
+      <c r="H38" s="37"/>
+      <c r="I38" s="37"/>
+      <c r="J38" s="37"/>
+      <c r="K38" s="37"/>
+      <c r="L38" s="37"/>
+      <c r="M38" s="37"/>
+      <c r="N38" s="37"/>
+      <c r="O38" s="37"/>
+      <c r="P38" s="37"/>
+      <c r="Q38" s="37"/>
+      <c r="R38" s="37"/>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A39" s="37"/>
+      <c r="B39" s="37"/>
+      <c r="C39" s="37"/>
+      <c r="D39" s="37"/>
+      <c r="E39" s="37"/>
+      <c r="F39" s="37"/>
+      <c r="G39" s="37"/>
+      <c r="H39" s="37"/>
+      <c r="I39" s="37"/>
+      <c r="J39" s="37"/>
+      <c r="K39" s="37"/>
+      <c r="L39" s="37"/>
+      <c r="M39" s="37"/>
+      <c r="N39" s="37"/>
+      <c r="O39" s="37"/>
+      <c r="P39" s="37"/>
+      <c r="Q39" s="37"/>
+      <c r="R39" s="37"/>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A40" s="37"/>
+      <c r="B40" s="37"/>
+      <c r="C40" s="37"/>
+      <c r="D40" s="37"/>
+      <c r="E40" s="37"/>
+      <c r="F40" s="37"/>
+      <c r="G40" s="37"/>
+      <c r="H40" s="37"/>
+      <c r="I40" s="37"/>
+      <c r="J40" s="37"/>
+      <c r="K40" s="37"/>
+      <c r="L40" s="37"/>
+      <c r="M40" s="37"/>
+      <c r="N40" s="37"/>
+      <c r="O40" s="37"/>
+      <c r="P40" s="37"/>
+      <c r="Q40" s="37"/>
+      <c r="R40" s="37"/>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A41" s="37"/>
+      <c r="B41" s="37"/>
+      <c r="C41" s="37"/>
+      <c r="D41" s="37"/>
+      <c r="E41" s="37"/>
+      <c r="F41" s="37"/>
+      <c r="G41" s="37"/>
+      <c r="H41" s="37"/>
+      <c r="I41" s="37"/>
+      <c r="J41" s="37"/>
+      <c r="K41" s="37"/>
+      <c r="L41" s="37"/>
+      <c r="M41" s="37"/>
+      <c r="N41" s="37"/>
+      <c r="O41" s="37"/>
+      <c r="P41" s="37"/>
+      <c r="Q41" s="37"/>
+      <c r="R41" s="37"/>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A42" s="37"/>
+      <c r="B42" s="37"/>
+      <c r="C42" s="37"/>
+      <c r="D42" s="37"/>
+      <c r="E42" s="37"/>
+      <c r="F42" s="37"/>
+      <c r="G42" s="37"/>
+      <c r="H42" s="37"/>
+      <c r="I42" s="37"/>
+      <c r="J42" s="37"/>
+      <c r="K42" s="37"/>
+      <c r="L42" s="37"/>
+      <c r="M42" s="37"/>
+      <c r="N42" s="37"/>
+      <c r="O42" s="37"/>
+      <c r="P42" s="37"/>
+      <c r="Q42" s="37"/>
+      <c r="R42" s="37"/>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A43" s="37"/>
+      <c r="B43" s="37"/>
+      <c r="C43" s="37"/>
+      <c r="D43" s="37"/>
+      <c r="E43" s="37"/>
+      <c r="F43" s="37"/>
+      <c r="G43" s="37"/>
+      <c r="H43" s="37"/>
+      <c r="I43" s="37"/>
+      <c r="J43" s="37"/>
+      <c r="K43" s="37"/>
+      <c r="L43" s="37"/>
+      <c r="M43" s="37"/>
+      <c r="N43" s="37"/>
+      <c r="O43" s="37"/>
+      <c r="P43" s="37"/>
+      <c r="Q43" s="37"/>
+      <c r="R43" s="37"/>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A44" s="37"/>
+      <c r="B44" s="37"/>
+      <c r="C44" s="37"/>
+      <c r="D44" s="37"/>
+      <c r="E44" s="37"/>
+      <c r="F44" s="37"/>
+      <c r="G44" s="37"/>
+      <c r="H44" s="37"/>
+      <c r="I44" s="37"/>
+      <c r="J44" s="37"/>
+      <c r="K44" s="37"/>
+      <c r="L44" s="37"/>
+      <c r="M44" s="37"/>
+      <c r="N44" s="37"/>
+      <c r="O44" s="37"/>
+      <c r="P44" s="37"/>
+      <c r="Q44" s="37"/>
+      <c r="R44" s="37"/>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A45" s="37"/>
+      <c r="B45" s="37"/>
+      <c r="C45" s="37"/>
+      <c r="D45" s="37"/>
+      <c r="E45" s="37"/>
+      <c r="F45" s="37"/>
+      <c r="G45" s="37"/>
+      <c r="H45" s="37"/>
+      <c r="I45" s="37"/>
+      <c r="J45" s="37"/>
+      <c r="K45" s="37"/>
+      <c r="L45" s="37"/>
+      <c r="M45" s="37"/>
+      <c r="N45" s="37"/>
+      <c r="O45" s="37"/>
+      <c r="P45" s="37"/>
+      <c r="Q45" s="37"/>
+      <c r="R45" s="37"/>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A46" s="37"/>
+      <c r="B46" s="37"/>
+      <c r="C46" s="37"/>
+      <c r="D46" s="37"/>
+      <c r="E46" s="37"/>
+      <c r="F46" s="37"/>
+      <c r="G46" s="37"/>
+      <c r="H46" s="37"/>
+      <c r="I46" s="37"/>
+      <c r="J46" s="37"/>
+      <c r="K46" s="37"/>
+      <c r="L46" s="37"/>
+      <c r="M46" s="37"/>
+      <c r="N46" s="37"/>
+      <c r="O46" s="37"/>
+      <c r="P46" s="37"/>
+      <c r="Q46" s="37"/>
+      <c r="R46" s="37"/>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A47" s="37"/>
+      <c r="B47" s="37"/>
+      <c r="C47" s="37"/>
+      <c r="D47" s="37"/>
+      <c r="E47" s="37"/>
+      <c r="F47" s="37"/>
+      <c r="G47" s="37"/>
+      <c r="H47" s="37"/>
+      <c r="I47" s="37"/>
+      <c r="J47" s="37"/>
+      <c r="K47" s="37"/>
+      <c r="L47" s="37"/>
+      <c r="M47" s="37"/>
+      <c r="N47" s="37"/>
+      <c r="O47" s="37"/>
+      <c r="P47" s="37"/>
+      <c r="Q47" s="37"/>
+      <c r="R47" s="37"/>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A48" s="37"/>
+      <c r="B48" s="37"/>
+      <c r="C48" s="37"/>
+      <c r="D48" s="37"/>
+      <c r="E48" s="37"/>
+      <c r="F48" s="37"/>
+      <c r="G48" s="37"/>
+      <c r="H48" s="37"/>
+      <c r="I48" s="37"/>
+      <c r="J48" s="37"/>
+      <c r="K48" s="37"/>
+      <c r="L48" s="37"/>
+      <c r="M48" s="37"/>
+      <c r="N48" s="37"/>
+      <c r="O48" s="37"/>
+      <c r="P48" s="37"/>
+      <c r="Q48" s="37"/>
+      <c r="R48" s="37"/>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A49" s="37"/>
+      <c r="B49" s="37"/>
+      <c r="C49" s="37"/>
+      <c r="D49" s="37"/>
+      <c r="E49" s="37"/>
+      <c r="F49" s="37"/>
+      <c r="G49" s="37"/>
+      <c r="H49" s="37"/>
+      <c r="I49" s="37"/>
+      <c r="J49" s="37"/>
+      <c r="K49" s="37"/>
+      <c r="L49" s="37"/>
+      <c r="M49" s="37"/>
+      <c r="N49" s="37"/>
+      <c r="O49" s="37"/>
+      <c r="P49" s="37"/>
+      <c r="Q49" s="37"/>
+      <c r="R49" s="37"/>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A50" s="37"/>
+      <c r="B50" s="37"/>
+      <c r="C50" s="37"/>
+      <c r="D50" s="37"/>
+      <c r="E50" s="37"/>
+      <c r="F50" s="37"/>
+      <c r="G50" s="37"/>
+      <c r="H50" s="37"/>
+      <c r="I50" s="37"/>
+      <c r="J50" s="37"/>
+      <c r="K50" s="37"/>
+      <c r="L50" s="37"/>
+      <c r="M50" s="37"/>
+      <c r="N50" s="37"/>
+      <c r="O50" s="37"/>
+      <c r="P50" s="37"/>
+      <c r="Q50" s="37"/>
+      <c r="R50" s="37"/>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A51" s="37"/>
+      <c r="B51" s="37"/>
+      <c r="C51" s="37"/>
+      <c r="D51" s="37"/>
+      <c r="E51" s="37"/>
+      <c r="F51" s="37"/>
+      <c r="G51" s="37"/>
+      <c r="H51" s="37"/>
+      <c r="I51" s="37"/>
+      <c r="J51" s="37"/>
+      <c r="K51" s="37"/>
+      <c r="L51" s="37"/>
+      <c r="M51" s="37"/>
+      <c r="N51" s="37"/>
+      <c r="O51" s="37"/>
+      <c r="P51" s="37"/>
+      <c r="Q51" s="37"/>
+      <c r="R51" s="37"/>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A52" s="37"/>
+      <c r="B52" s="37"/>
+      <c r="C52" s="37"/>
+      <c r="D52" s="37"/>
+      <c r="E52" s="37"/>
+      <c r="F52" s="37"/>
+      <c r="G52" s="37"/>
+      <c r="H52" s="37"/>
+      <c r="I52" s="37"/>
+      <c r="J52" s="37"/>
+      <c r="K52" s="37"/>
+      <c r="L52" s="37"/>
+      <c r="M52" s="37"/>
+      <c r="N52" s="37"/>
+      <c r="O52" s="37"/>
+      <c r="P52" s="37"/>
+      <c r="Q52" s="37"/>
+      <c r="R52" s="37"/>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A53" s="37"/>
+      <c r="B53" s="37"/>
+      <c r="C53" s="37"/>
+      <c r="D53" s="37"/>
+      <c r="E53" s="37"/>
+      <c r="F53" s="37"/>
+      <c r="G53" s="37"/>
+      <c r="H53" s="37"/>
+      <c r="I53" s="37"/>
+      <c r="J53" s="37"/>
+      <c r="K53" s="37"/>
+      <c r="L53" s="37"/>
+      <c r="M53" s="37"/>
+      <c r="N53" s="37"/>
+      <c r="O53" s="37"/>
+      <c r="P53" s="37"/>
+      <c r="Q53" s="37"/>
+      <c r="R53" s="37"/>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A54" s="37"/>
+      <c r="B54" s="37"/>
+      <c r="C54" s="37"/>
+      <c r="D54" s="37"/>
+      <c r="E54" s="37"/>
+      <c r="F54" s="37"/>
+      <c r="G54" s="37"/>
+      <c r="H54" s="37"/>
+      <c r="I54" s="37"/>
+      <c r="J54" s="37"/>
+      <c r="K54" s="37"/>
+      <c r="L54" s="37"/>
+      <c r="M54" s="37"/>
+      <c r="N54" s="37"/>
+      <c r="O54" s="37"/>
+      <c r="P54" s="37"/>
+      <c r="Q54" s="37"/>
+      <c r="R54" s="37"/>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A55" s="37"/>
+      <c r="B55" s="37"/>
+      <c r="C55" s="37"/>
+      <c r="D55" s="37"/>
+      <c r="E55" s="37"/>
+      <c r="F55" s="37"/>
+      <c r="G55" s="37"/>
+      <c r="H55" s="37"/>
+      <c r="I55" s="37"/>
+      <c r="J55" s="37"/>
+      <c r="K55" s="37"/>
+      <c r="L55" s="37"/>
+      <c r="M55" s="37"/>
+      <c r="N55" s="37"/>
+      <c r="O55" s="37"/>
+      <c r="P55" s="37"/>
+      <c r="Q55" s="37"/>
+      <c r="R55" s="37"/>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A56" s="37"/>
+      <c r="B56" s="37"/>
+      <c r="C56" s="37"/>
+      <c r="D56" s="37"/>
+      <c r="E56" s="37"/>
+      <c r="F56" s="37"/>
+      <c r="G56" s="37"/>
+      <c r="H56" s="37"/>
+      <c r="I56" s="37"/>
+      <c r="J56" s="37"/>
+      <c r="K56" s="37"/>
+      <c r="L56" s="37"/>
+      <c r="M56" s="37"/>
+      <c r="N56" s="37"/>
+      <c r="O56" s="37"/>
+      <c r="P56" s="37"/>
+      <c r="Q56" s="37"/>
+      <c r="R56" s="37"/>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A57" s="37"/>
+      <c r="B57" s="37"/>
+      <c r="C57" s="37"/>
+      <c r="D57" s="37"/>
+      <c r="E57" s="37"/>
+      <c r="F57" s="37"/>
+      <c r="G57" s="37"/>
+      <c r="H57" s="37"/>
+      <c r="I57" s="37"/>
+      <c r="J57" s="37"/>
+      <c r="K57" s="37"/>
+      <c r="L57" s="37"/>
+      <c r="M57" s="37"/>
+      <c r="N57" s="37"/>
+      <c r="O57" s="37"/>
+      <c r="P57" s="37"/>
+      <c r="Q57" s="37"/>
+      <c r="R57" s="37"/>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A58" s="37"/>
+      <c r="B58" s="37"/>
+      <c r="C58" s="37"/>
+      <c r="D58" s="37"/>
+      <c r="E58" s="37"/>
+      <c r="F58" s="37"/>
+      <c r="G58" s="37"/>
+      <c r="H58" s="37"/>
+      <c r="I58" s="37"/>
+      <c r="J58" s="37"/>
+      <c r="K58" s="37"/>
+      <c r="L58" s="37"/>
+      <c r="M58" s="37"/>
+      <c r="N58" s="37"/>
+      <c r="O58" s="37"/>
+      <c r="P58" s="37"/>
+      <c r="Q58" s="37"/>
+      <c r="R58" s="37"/>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A59" s="37"/>
+      <c r="B59" s="37"/>
+      <c r="C59" s="37"/>
+      <c r="D59" s="37"/>
+      <c r="E59" s="37"/>
+      <c r="F59" s="37"/>
+      <c r="G59" s="37"/>
+      <c r="H59" s="37"/>
+      <c r="I59" s="37"/>
+      <c r="J59" s="37"/>
+      <c r="K59" s="37"/>
+      <c r="L59" s="37"/>
+      <c r="M59" s="37"/>
+      <c r="N59" s="37"/>
+      <c r="O59" s="37"/>
+      <c r="P59" s="37"/>
+      <c r="Q59" s="37"/>
+      <c r="R59" s="37"/>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A60" s="37"/>
+      <c r="B60" s="37"/>
+      <c r="C60" s="37"/>
+      <c r="D60" s="37"/>
+      <c r="E60" s="37"/>
+      <c r="F60" s="37"/>
+      <c r="G60" s="37"/>
+      <c r="H60" s="37"/>
+      <c r="I60" s="37"/>
+      <c r="J60" s="37"/>
+      <c r="K60" s="37"/>
+      <c r="L60" s="37"/>
+      <c r="M60" s="37"/>
+      <c r="N60" s="37"/>
+      <c r="O60" s="37"/>
+      <c r="P60" s="37"/>
+      <c r="Q60" s="37"/>
+      <c r="R60" s="37"/>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A61" s="37"/>
+      <c r="B61" s="37"/>
+      <c r="C61" s="37"/>
+      <c r="D61" s="37"/>
+      <c r="E61" s="37"/>
+      <c r="F61" s="37"/>
+      <c r="G61" s="37"/>
+      <c r="H61" s="37"/>
+      <c r="I61" s="37"/>
+      <c r="J61" s="37"/>
+      <c r="K61" s="37"/>
+      <c r="L61" s="37"/>
+      <c r="M61" s="37"/>
+      <c r="N61" s="37"/>
+      <c r="O61" s="37"/>
+      <c r="P61" s="37"/>
+      <c r="Q61" s="37"/>
+      <c r="R61" s="37"/>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="O62" s="35"/>
+      <c r="P62" s="35"/>
+      <c r="Q62" s="35"/>
+      <c r="R62" s="35"/>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="O63" s="35"/>
+      <c r="P63" s="35"/>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="O64" s="35"/>
+      <c r="P64" s="35"/>
     </row>
     <row r="65" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O65" s="43"/>
-      <c r="P65" s="43"/>
+      <c r="O65" s="35"/>
+      <c r="P65" s="35"/>
     </row>
     <row r="66" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O66" s="43"/>
-      <c r="P66" s="43"/>
+      <c r="O66" s="35"/>
+      <c r="P66" s="35"/>
     </row>
     <row r="67" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O67" s="43"/>
-      <c r="P67" s="43"/>
+      <c r="O67" s="35"/>
+      <c r="P67" s="35"/>
     </row>
     <row r="68" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O68" s="43"/>
-      <c r="P68" s="43"/>
+      <c r="O68" s="35"/>
+      <c r="P68" s="35"/>
     </row>
     <row r="69" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O69" s="43"/>
-      <c r="P69" s="43"/>
+      <c r="O69" s="35"/>
+      <c r="P69" s="35"/>
     </row>
     <row r="70" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O70" s="43"/>
-      <c r="P70" s="43"/>
+      <c r="O70" s="35"/>
+      <c r="P70" s="35"/>
     </row>
     <row r="71" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O71" s="43"/>
-      <c r="P71" s="43"/>
+      <c r="O71" s="35"/>
+      <c r="P71" s="35"/>
     </row>
     <row r="72" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O72" s="43"/>
-      <c r="P72" s="43"/>
+      <c r="O72" s="35"/>
+      <c r="P72" s="35"/>
     </row>
     <row r="73" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O73" s="43"/>
-      <c r="P73" s="43"/>
+      <c r="O73" s="35"/>
+      <c r="P73" s="35"/>
     </row>
     <row r="74" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O74" s="43"/>
-      <c r="P74" s="43"/>
+      <c r="O74" s="35"/>
+      <c r="P74" s="35"/>
     </row>
     <row r="75" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O75" s="43"/>
-      <c r="P75" s="43"/>
+      <c r="O75" s="35"/>
+      <c r="P75" s="35"/>
     </row>
     <row r="76" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O76" s="43"/>
-      <c r="P76" s="43"/>
+      <c r="O76" s="35"/>
+      <c r="P76" s="35"/>
     </row>
     <row r="77" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O77" s="43"/>
-      <c r="P77" s="43"/>
+      <c r="O77" s="35"/>
+      <c r="P77" s="35"/>
     </row>
     <row r="78" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O78" s="43"/>
-      <c r="P78" s="43"/>
+      <c r="O78" s="35"/>
+      <c r="P78" s="35"/>
     </row>
     <row r="79" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O79" s="43"/>
-      <c r="P79" s="43"/>
+      <c r="O79" s="35"/>
+      <c r="P79" s="35"/>
     </row>
     <row r="80" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O80" s="43"/>
-      <c r="P80" s="43"/>
+      <c r="O80" s="35"/>
+      <c r="P80" s="35"/>
     </row>
     <row r="81" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O81" s="43"/>
-      <c r="P81" s="43"/>
+      <c r="O81" s="35"/>
+      <c r="P81" s="35"/>
     </row>
     <row r="82" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O82" s="43"/>
-      <c r="P82" s="43"/>
+      <c r="O82" s="35"/>
+      <c r="P82" s="35"/>
     </row>
     <row r="83" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O83" s="43"/>
-      <c r="P83" s="43"/>
+      <c r="O83" s="35"/>
+      <c r="P83" s="35"/>
     </row>
     <row r="84" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O84" s="43"/>
-      <c r="P84" s="43"/>
+      <c r="O84" s="35"/>
+      <c r="P84" s="35"/>
     </row>
     <row r="85" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O85" s="43"/>
-      <c r="P85" s="43"/>
+      <c r="O85" s="35"/>
+      <c r="P85" s="35"/>
     </row>
     <row r="86" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O86" s="43"/>
-      <c r="P86" s="43"/>
+      <c r="O86" s="35"/>
+      <c r="P86" s="35"/>
     </row>
     <row r="87" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O87" s="43"/>
-      <c r="P87" s="43"/>
+      <c r="O87" s="35"/>
+      <c r="P87" s="35"/>
     </row>
     <row r="88" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O88" s="43"/>
-      <c r="P88" s="43"/>
+      <c r="O88" s="35"/>
+      <c r="P88" s="35"/>
     </row>
     <row r="89" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O89" s="43"/>
-      <c r="P89" s="43"/>
+      <c r="O89" s="35"/>
+      <c r="P89" s="35"/>
     </row>
     <row r="90" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O90" s="43"/>
-      <c r="P90" s="43"/>
+      <c r="O90" s="35"/>
+      <c r="P90" s="35"/>
     </row>
     <row r="91" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O91" s="43"/>
-      <c r="P91" s="43"/>
+      <c r="O91" s="35"/>
+      <c r="P91" s="35"/>
     </row>
     <row r="92" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O92" s="43"/>
-      <c r="P92" s="43"/>
+      <c r="O92" s="35"/>
+      <c r="P92" s="35"/>
     </row>
     <row r="93" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O93" s="43"/>
-      <c r="P93" s="43"/>
+      <c r="O93" s="35"/>
+      <c r="P93" s="35"/>
     </row>
     <row r="94" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O94" s="43"/>
-      <c r="P94" s="43"/>
+      <c r="O94" s="35"/>
+      <c r="P94" s="35"/>
     </row>
     <row r="95" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O95" s="43"/>
-      <c r="P95" s="43"/>
+      <c r="O95" s="35"/>
+      <c r="P95" s="35"/>
     </row>
     <row r="96" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O96" s="43"/>
-      <c r="P96" s="43"/>
+      <c r="O96" s="35"/>
+      <c r="P96" s="35"/>
     </row>
     <row r="97" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O97" s="43"/>
-      <c r="P97" s="43"/>
+      <c r="O97" s="35"/>
+      <c r="P97" s="35"/>
     </row>
     <row r="98" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O98" s="43"/>
-      <c r="P98" s="43"/>
+      <c r="O98" s="35"/>
+      <c r="P98" s="35"/>
     </row>
     <row r="99" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O99" s="43"/>
-      <c r="P99" s="43"/>
+      <c r="O99" s="35"/>
+      <c r="P99" s="35"/>
     </row>
     <row r="100" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O100" s="43"/>
-      <c r="P100" s="43"/>
+      <c r="O100" s="35"/>
+      <c r="P100" s="35"/>
     </row>
     <row r="101" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O101" s="43"/>
-      <c r="P101" s="43"/>
+      <c r="O101" s="35"/>
+      <c r="P101" s="35"/>
     </row>
     <row r="102" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O102" s="43"/>
-      <c r="P102" s="43"/>
+      <c r="O102" s="35"/>
+      <c r="P102" s="35"/>
     </row>
     <row r="103" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O103" s="43"/>
-      <c r="P103" s="43"/>
+      <c r="O103" s="35"/>
+      <c r="P103" s="35"/>
     </row>
     <row r="104" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O104" s="43"/>
-      <c r="P104" s="43"/>
+      <c r="O104" s="35"/>
+      <c r="P104" s="35"/>
     </row>
     <row r="105" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O105" s="43"/>
-      <c r="P105" s="43"/>
+      <c r="O105" s="35"/>
+      <c r="P105" s="35"/>
     </row>
     <row r="106" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O106" s="43"/>
-      <c r="P106" s="43"/>
+      <c r="O106" s="35"/>
+      <c r="P106" s="35"/>
     </row>
     <row r="107" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O107" s="43"/>
-      <c r="P107" s="43"/>
+      <c r="O107" s="35"/>
+      <c r="P107" s="35"/>
     </row>
     <row r="108" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O108" s="43"/>
-      <c r="P108" s="43"/>
+      <c r="O108" s="35"/>
+      <c r="P108" s="35"/>
     </row>
     <row r="109" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O109" s="43"/>
-      <c r="P109" s="43"/>
+      <c r="O109" s="35"/>
+      <c r="P109" s="35"/>
     </row>
     <row r="110" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O110" s="43"/>
-      <c r="P110" s="43"/>
+      <c r="O110" s="35"/>
+      <c r="P110" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A20:E27"/>
     <mergeCell ref="N24:O24"/>
     <mergeCell ref="N25:O25"/>
     <mergeCell ref="A1:XFD2"/>
@@ -15606,8 +15970,9 @@
     <mergeCell ref="N4:O4"/>
     <mergeCell ref="N13:O13"/>
     <mergeCell ref="N18:O18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="A22:E30"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F9" r:id="rId1" display="https://finbox.com/NASDAQGS:PANW/explorer/revenue_proj/" xr:uid="{856FE435-B2FE-2946-A594-FC52E380D74C}"/>

--- a/Technology/Software/Palo Alto Networks.xlsx
+++ b/Technology/Software/Palo Alto Networks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6350053C-103E-7B4D-AD4C-ECA00AF1AD57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F2759C1-1B1D-C044-9776-DCBF9660B71E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1386,7 +1386,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1701,11 +1701,14 @@
     <xf numFmtId="9" fontId="3" fillId="10" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1742,6 +1745,8 @@
       <sheetName val="US Treasury Bonds"/>
       <sheetName val="High Growth"/>
       <sheetName val="GARP"/>
+      <sheetName val="Top Consumer Stocks"/>
+      <sheetName val="Dividend Portfolio"/>
       <sheetName val="Watchlist"/>
       <sheetName val="Small + Speculative"/>
       <sheetName val="Highest Quality"/>
@@ -1761,7 +1766,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.2709999999999998E-2</v>
+            <v>4.1210000000000004E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1774,6 +1779,8 @@
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1899,39 +1906,39 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>296.8485</v>
+    <v>298.91000000000003</v>
     <v>132.22</v>
-    <v>1.1717</v>
-    <v>1.07</v>
-    <v>3.6259999999999999E-3</v>
-    <v>-0.26</v>
-    <v>-8.7790000000000003E-4</v>
+    <v>1.2807999999999999</v>
+    <v>4.8099999999999996</v>
+    <v>1.6382000000000001E-2</v>
+    <v>0.06</v>
+    <v>2.0109999999999998E-4</v>
     <v>USD</v>
-    <v>Palo Alto Networks, Inc. is a global cybersecurity provider. The Company's cybersecurity platforms and services help secure enterprise users, networks, clouds and endpoints by delivering comprehensive cybersecurity backed by artificial intelligence and automation. The Company focuses on delivering value in four areas, Network Security, Cloud Security, Security Operations and Threat Intelligence and Security Consulting. Its network security platform is designed to deliver complete zero trust solutions to its customers. It enables cloud-native security through its Prisma Cloud platform. As a comprehensive Cloud Native Application Protection Platform (CNAPP), Prisma Cloud secures multi-and hybrid-cloud environments for applications, data and the entire cloud native technology stack across the full development lifecycle, from code to runtime. It delivers security automation, security analytics, endpoint security and attack surface management solutions through its Cortex portfolio.</v>
+    <v>Palo Alto Networks, Inc. is a global cybersecurity provider. The Company's cybersecurity platforms and services help secure enterprise users, networks, clouds and endpoints by delivering cybersecurity backed by artificial intelligence and automation. It focuses on delivering value in four areas: Network Security, Cloud Security, Security Operations and Threat Intelligence and Security Consulting. Its network security platform delivers complete zero trust solutions to its customers. It enables cloud-native security through its Prisma Cloud platform. Its Cloud Native Application Protection Platform (CNAPP), Prisma Cloud, secures multi-and hybrid-cloud environments for applications, data and the entire cloud native technology stack across the full development lifecycle, from code to runtime. It delivers security automation, security analytics, endpoint security and attack surface management solutions through its Cortex portfolio. It also provides data security posture management (DSPM).</v>
     <v>14182</v>
     <v>Nasdaq Stock Market</v>
     <v>XNAS</v>
     <v>XNAS</v>
     <v>3000 Tannery Way, SANTA CLARA, CA, 95054 US</v>
-    <v>296.8485</v>
+    <v>298.91000000000003</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45262.041188703122</v>
+    <v>45269.040347673435</v>
     <v>0</v>
-    <v>291.05</v>
-    <v>93379248000</v>
+    <v>290.64</v>
+    <v>94091826000</v>
     <v>PALO ALTO NETWORKS, INC.</v>
     <v>PALO ALTO NETWORKS, INC.</v>
-    <v>292.31</v>
-    <v>167.33959999999999</v>
-    <v>295.08999999999997</v>
-    <v>296.16000000000003</v>
-    <v>295.89999999999998</v>
+    <v>290.64</v>
+    <v>166.50030000000001</v>
+    <v>293.61</v>
+    <v>298.42</v>
+    <v>298.48</v>
     <v>315300000</v>
     <v>PANW</v>
     <v>PALO ALTO NETWORKS, INC. (XNAS:PANW)</v>
-    <v>6156816</v>
-    <v>5005114</v>
+    <v>2406633</v>
+    <v>5387112</v>
     <v>2005</v>
   </rv>
   <rv s="2">
@@ -14051,7 +14058,7 @@
   <dimension ref="A1:R110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14100,7 +14107,7 @@
     <row r="3" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="66" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>93379248000</v>
+        <v>94091826000</v>
       </c>
       <c r="B3" s="67" t="s">
         <v>201</v>
@@ -14128,7 +14135,7 @@
       </c>
       <c r="I3" s="71">
         <f>J15*(1+I7)/(I6-I7)</f>
-        <v>81922849364.054916</v>
+        <v>76192791761.173431</v>
       </c>
       <c r="J3" s="72" t="s">
         <v>205</v>
@@ -14180,14 +14187,14 @@
       </c>
       <c r="I4" s="80">
         <f>NPV(I6,F15,G15,H15,I15,(J15+I3))</f>
-        <v>67046786144.987091</v>
+        <v>62026992481.474258</v>
       </c>
       <c r="J4" s="78" t="s">
         <v>211</v>
       </c>
       <c r="K4" s="81" cm="1">
         <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
-        <v>3.6259999999999999E-3</v>
+        <v>1.6382000000000001E-2</v>
       </c>
       <c r="L4" s="82" t="s">
         <v>251</v>
@@ -14232,14 +14239,14 @@
       </c>
       <c r="I5" s="80">
         <f>I4+G5-G6</f>
-        <v>67166086144.987091</v>
+        <v>62146292481.474258</v>
       </c>
       <c r="J5" s="78" t="s">
         <v>218</v>
       </c>
       <c r="K5" s="84" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>296.16000000000003</v>
+        <v>298.42</v>
       </c>
       <c r="L5" s="85" t="s">
         <v>219</v>
@@ -14259,7 +14266,7 @@
     <row r="6" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="86">
         <f>O20/F10</f>
-        <v>11.416951705587481</v>
+        <v>11.504074581244652</v>
       </c>
       <c r="B6" s="76" t="s">
         <v>221</v>
@@ -14287,14 +14294,14 @@
       </c>
       <c r="I6" s="81">
         <f>N25</f>
-        <v>8.914785424084383E-2</v>
+        <v>9.3972075684959328E-2</v>
       </c>
       <c r="J6" s="78" t="s">
         <v>224</v>
       </c>
       <c r="K6" s="87">
         <f>I5/G4</f>
-        <v>202.40316665199381</v>
+        <v>187.27615551066589</v>
       </c>
       <c r="L6" s="88" t="s">
         <v>225</v>
@@ -14314,14 +14321,14 @@
     <row r="7" spans="1:18" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="89">
         <f>O20/F12</f>
-        <v>51.391991194276279</v>
+        <v>51.784164006604293</v>
       </c>
       <c r="B7" s="90" t="s">
         <v>227</v>
       </c>
       <c r="C7" s="91">
         <f>F15/A3</f>
-        <v>2.3517002407215788E-2</v>
+        <v>2.3338902998864111E-2</v>
       </c>
       <c r="D7" s="90" t="s">
         <v>228</v>
@@ -14348,7 +14355,7 @@
       </c>
       <c r="K7" s="97">
         <f>K6/K5-1</f>
-        <v>-0.3165749370205504</v>
+        <v>-0.37244100425351556</v>
       </c>
       <c r="L7" s="98" t="s">
         <v>231</v>
@@ -14675,7 +14682,7 @@
       </c>
       <c r="O14" s="103">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.2709999999999998E-2</v>
+        <v>4.1210000000000004E-2</v>
       </c>
       <c r="P14" s="35"/>
       <c r="Q14" s="35"/>
@@ -14722,7 +14729,7 @@
       </c>
       <c r="O15" s="104" cm="1">
         <f t="array" ref="O15">_FV(A1,"Beta")</f>
-        <v>1.1717</v>
+        <v>1.2807999999999999</v>
       </c>
       <c r="P15" s="35"/>
       <c r="Q15" s="35"/>
@@ -14827,7 +14834,7 @@
       </c>
       <c r="O17" s="106">
         <f>(O14)+((O15)*(O16-O14))</f>
-        <v>9.1089493000000007E-2</v>
+        <v>9.6015432000000012E-2</v>
       </c>
       <c r="P17" s="35"/>
       <c r="Q17" s="35"/>
@@ -14909,7 +14916,7 @@
       </c>
       <c r="O20" s="107" cm="1">
         <f t="array" ref="O20">_FV(A1,"Market cap",TRUE)</f>
-        <v>93379248000</v>
+        <v>94091826000</v>
       </c>
       <c r="P20" s="35"/>
       <c r="Q20" s="35"/>
@@ -14939,21 +14946,21 @@
       </c>
       <c r="O21" s="107">
         <f>O19+O20</f>
-        <v>95649948000</v>
+        <v>96362526000</v>
       </c>
       <c r="P21" s="35"/>
       <c r="Q21" s="35"/>
       <c r="R21" s="35"/>
     </row>
     <row r="22" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="120" t="str" cm="1">
+      <c r="A22" s="122" t="str" cm="1">
         <f t="array" ref="A22">_FV(A1,"Description")</f>
-        <v>Palo Alto Networks, Inc. is a global cybersecurity provider. The Company's cybersecurity platforms and services help secure enterprise users, networks, clouds and endpoints by delivering comprehensive cybersecurity backed by artificial intelligence and automation. The Company focuses on delivering value in four areas, Network Security, Cloud Security, Security Operations and Threat Intelligence and Security Consulting. Its network security platform is designed to deliver complete zero trust solutions to its customers. It enables cloud-native security through its Prisma Cloud platform. As a comprehensive Cloud Native Application Protection Platform (CNAPP), Prisma Cloud secures multi-and hybrid-cloud environments for applications, data and the entire cloud native technology stack across the full development lifecycle, from code to runtime. It delivers security automation, security analytics, endpoint security and attack surface management solutions through its Cortex portfolio.</v>
-      </c>
-      <c r="B22" s="120"/>
-      <c r="C22" s="120"/>
-      <c r="D22" s="120"/>
-      <c r="E22" s="120"/>
+        <v>Palo Alto Networks, Inc. is a global cybersecurity provider. The Company's cybersecurity platforms and services help secure enterprise users, networks, clouds and endpoints by delivering cybersecurity backed by artificial intelligence and automation. It focuses on delivering value in four areas: Network Security, Cloud Security, Security Operations and Threat Intelligence and Security Consulting. Its network security platform delivers complete zero trust solutions to its customers. It enables cloud-native security through its Prisma Cloud platform. Its Cloud Native Application Protection Platform (CNAPP), Prisma Cloud, secures multi-and hybrid-cloud environments for applications, data and the entire cloud native technology stack across the full development lifecycle, from code to runtime. It delivers security automation, security analytics, endpoint security and attack surface management solutions through its Cortex portfolio. It also provides data security posture management (DSPM).</v>
+      </c>
+      <c r="B22" s="122"/>
+      <c r="C22" s="122"/>
+      <c r="D22" s="122"/>
+      <c r="E22" s="122"/>
       <c r="F22" s="37"/>
       <c r="G22" s="37"/>
       <c r="H22" s="37"/>
@@ -14967,18 +14974,18 @@
       </c>
       <c r="O22" s="108">
         <f>(O19/O21)</f>
-        <v>2.3739688807776455E-2</v>
+        <v>2.3564139445659611E-2</v>
       </c>
       <c r="P22" s="35"/>
       <c r="Q22" s="35"/>
       <c r="R22" s="35"/>
     </row>
     <row r="23" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="120"/>
-      <c r="B23" s="120"/>
-      <c r="C23" s="120"/>
-      <c r="D23" s="120"/>
-      <c r="E23" s="120"/>
+      <c r="A23" s="122"/>
+      <c r="B23" s="122"/>
+      <c r="C23" s="122"/>
+      <c r="D23" s="122"/>
+      <c r="E23" s="122"/>
       <c r="F23" s="37"/>
       <c r="G23" s="37"/>
       <c r="H23" s="37"/>
@@ -14992,18 +14999,18 @@
       </c>
       <c r="O23" s="109">
         <f>O20/O21</f>
-        <v>0.97626031119222356</v>
+        <v>0.9764358605543404</v>
       </c>
       <c r="P23" s="35"/>
       <c r="Q23" s="35"/>
       <c r="R23" s="35"/>
     </row>
     <row r="24" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="120"/>
-      <c r="B24" s="120"/>
-      <c r="C24" s="120"/>
-      <c r="D24" s="120"/>
-      <c r="E24" s="120"/>
+      <c r="A24" s="122"/>
+      <c r="B24" s="122"/>
+      <c r="C24" s="122"/>
+      <c r="D24" s="122"/>
+      <c r="E24" s="122"/>
       <c r="F24" s="37"/>
       <c r="G24" s="37"/>
       <c r="H24" s="37"/>
@@ -15021,11 +15028,11 @@
       <c r="R24" s="35"/>
     </row>
     <row r="25" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="120"/>
-      <c r="B25" s="120"/>
-      <c r="C25" s="120"/>
-      <c r="D25" s="120"/>
-      <c r="E25" s="120"/>
+      <c r="A25" s="122"/>
+      <c r="B25" s="122"/>
+      <c r="C25" s="122"/>
+      <c r="D25" s="122"/>
+      <c r="E25" s="122"/>
       <c r="F25" s="37"/>
       <c r="G25" s="37"/>
       <c r="H25" s="37"/>
@@ -15036,7 +15043,7 @@
       <c r="M25" s="37"/>
       <c r="N25" s="112">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>8.914785424084383E-2</v>
+        <v>9.3972075684959328E-2</v>
       </c>
       <c r="O25" s="113"/>
       <c r="P25" s="35"/>
@@ -15044,11 +15051,11 @@
       <c r="R25" s="35"/>
     </row>
     <row r="26" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="120"/>
-      <c r="B26" s="120"/>
-      <c r="C26" s="120"/>
-      <c r="D26" s="120"/>
-      <c r="E26" s="120"/>
+      <c r="A26" s="122"/>
+      <c r="B26" s="122"/>
+      <c r="C26" s="122"/>
+      <c r="D26" s="122"/>
+      <c r="E26" s="122"/>
       <c r="F26" s="37"/>
       <c r="G26" s="37"/>
       <c r="H26" s="37"/>
@@ -15064,11 +15071,11 @@
       <c r="R26" s="35"/>
     </row>
     <row r="27" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="120"/>
-      <c r="B27" s="120"/>
-      <c r="C27" s="120"/>
-      <c r="D27" s="120"/>
-      <c r="E27" s="120"/>
+      <c r="A27" s="122"/>
+      <c r="B27" s="122"/>
+      <c r="C27" s="122"/>
+      <c r="D27" s="122"/>
+      <c r="E27" s="122"/>
       <c r="F27" s="37"/>
       <c r="G27" s="37"/>
       <c r="H27" s="37"/>
@@ -15084,11 +15091,11 @@
       <c r="R27" s="35"/>
     </row>
     <row r="28" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="120"/>
-      <c r="B28" s="120"/>
-      <c r="C28" s="120"/>
-      <c r="D28" s="120"/>
-      <c r="E28" s="120"/>
+      <c r="A28" s="122"/>
+      <c r="B28" s="122"/>
+      <c r="C28" s="122"/>
+      <c r="D28" s="122"/>
+      <c r="E28" s="122"/>
       <c r="F28" s="37"/>
       <c r="G28" s="37"/>
       <c r="H28" s="37"/>
@@ -15104,11 +15111,11 @@
       <c r="R28" s="35"/>
     </row>
     <row r="29" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="120"/>
-      <c r="B29" s="120"/>
-      <c r="C29" s="120"/>
-      <c r="D29" s="120"/>
-      <c r="E29" s="120"/>
+      <c r="A29" s="122"/>
+      <c r="B29" s="122"/>
+      <c r="C29" s="122"/>
+      <c r="D29" s="122"/>
+      <c r="E29" s="122"/>
       <c r="F29" s="37"/>
       <c r="G29" s="37"/>
       <c r="H29" s="37"/>
@@ -15124,11 +15131,11 @@
       <c r="R29" s="35"/>
     </row>
     <row r="30" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="120"/>
-      <c r="B30" s="120"/>
-      <c r="C30" s="120"/>
-      <c r="D30" s="120"/>
-      <c r="E30" s="120"/>
+      <c r="A30" s="122"/>
+      <c r="B30" s="122"/>
+      <c r="C30" s="122"/>
+      <c r="D30" s="122"/>
+      <c r="E30" s="122"/>
       <c r="F30" s="37"/>
       <c r="G30" s="37"/>
       <c r="H30" s="37"/>
